--- a/outputs/ML_Results/mode_MNLR_new/Clermont.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Clermont.xlsx
@@ -7,15 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ47957920" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ50491646" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ53161249" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ55633837" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58040989" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ00495219" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ03095565" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ05592079" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ08162129" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ11669782" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ12687202" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13897036" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ16197372" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ17270171" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ18470367" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ19701519" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ20903158" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,12 +484,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-16.79944778235531</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.940349885083577</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-16.69075483971939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9971315942632665</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02182424460167228</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9950586593658347</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,12 +509,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-0.1905574375354696</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2966937828536215</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.7341870501439646</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.767072192801154</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0866690130446862</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0158462649532636</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -511,12 +534,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-277.0545390205139</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.8802650511452881</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.247622118364008</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001882567588175307</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00469984849201377</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -524,12 +559,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.3552392754586888</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04943000415774209</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1839365007435837</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5854655012894316</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8050562227390643</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5018013773871934</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -537,12 +584,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.257241245732715</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4323086413593955</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-9.834979711102999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8488039795815825</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5561774010182534</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4350700857235517</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,12 +609,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-0.2388338264735755</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04605726538585381</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.9845603988779403</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7249014460060852</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8046535393623135</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.004496179045109368</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -563,12 +634,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-0.5461776852178151</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.09679270528370995</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1735271750598458</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1988081182583995</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4259170864791769</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3370428592556002</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -576,12 +659,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2.480485024935857</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.05614178563275</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.160222533603036</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0310064166430554</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.611217577277414e-21</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.168515647190937e-06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -589,12 +684,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0.3575831628341308</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.771227536821589</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.085155034559333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7981525943305505</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.209523248346222e-07</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.665597803573038e-05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -602,12 +709,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2.033437730842949</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7329290033407765</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.346369991795805</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.07948632754824328</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0008684784281335348</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.006766297334255683</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -615,12 +734,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2.616912541222646</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.046353909801028</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.873271697526724</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02218469168451774</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.803068872998504e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.535445723131203e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -628,12 +759,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-18.22100798272113</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03895482861580461</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7850876449332419</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9986128058616072</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8985903202961427</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1719466779492401</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -641,12 +784,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-0.2661497919713058</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09176498375726971</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.04585977500961892</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8123786438633822</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6910563924211224</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9086982445754367</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -654,12 +809,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-19.81880750369464</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9049874398435753</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4008778735794227</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9995278348161982</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.003769357158642227</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4788903702825917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -667,12 +834,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-22.31494702880211</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.196712717453936</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.0899869880211</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9999149058386249</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.00999067844765094</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.001902047817926967</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -680,12 +859,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0.09264544438935017</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1675838928513222</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1441005036651463</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9318772359101968</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5144612752381006</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7715977328569115</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -693,12 +884,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2.547879102934522</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03005850078962127</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6643842120040091</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01323401048838206</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9307389978505608</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1523367914744498</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -706,12 +909,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>3.487231967334364</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.1829970955709093</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.890672455977529</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.007221357544245392</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7055828984660274</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.002140471972984814</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -719,12 +934,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-10.22510244755725</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.861025021694886</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.564065524374584</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.993466390889541</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1885252927005302</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01280414546721888</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -732,12 +959,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>0.9332014805350125</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.019597616632037</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6441874114087881</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4358012106149096</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0007751846630523463</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2124049404401449</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -745,12 +984,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>12.55409847409292</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.80176752999031</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.05959452372974</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9978564597262595</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2437973162541043</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9958376131545571</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -758,12 +1009,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>11.26361145950842</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.790780594339049</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11.43027021791526</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9980768025405619</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.07962355325822458</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9966160276537933</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -771,12 +1034,24 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>13.63488318299992</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.076676795319019</v>
+      </c>
+      <c r="D24" t="n">
+        <v>14.34264541247443</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9976719223910754</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1745477411983417</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9957538157934744</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -784,12 +1059,24 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>14.25338915488142</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.121267204279265</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.45293550873227</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9975663163893577</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.166284193691931</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.99572116438668</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -797,12 +1084,24 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>-0.5199452965008625</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.07490678071082198</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6056947277673231</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2477353632790775</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.551960936999073</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.001600878822417871</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -810,12 +1109,24 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>0.01984711451751101</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0070157358486103</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.01331784579699376</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4512561963441978</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3197610994271838</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2093311866556892</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -823,12 +1134,24 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-0.0003995811217698345</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.001758367005122417</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.020266264130462e-05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001128729776672003</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.871665119854194e-105</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6456304031391213</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -836,12 +1159,24 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>-2.889679967734128</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.252723697491579</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.176341767099545</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.351653554154635e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.823141709815027e-26</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.662190044493145e-37</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -849,142 +1184,249 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>0.283605325181215</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1096185267561057</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2375056148727667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1502997293921573</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.06278439096046659</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.004375164979325149</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0001721057400574028</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.388842249580007e-05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0001514995188219308</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5032947560591311</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3871138160276179</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2070794461379061</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.158394262652123</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1163983990445521</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1162597855947061</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4814846398096125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02540008414883245</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2029629936359574</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.03683297052338707</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01080983102512127</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.07321131720679515</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7499015794629847</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7421576238339739</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2199603192090165</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>UrbBuildDensity_res</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-3.683434229450692e-07</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-8.383474602462658e-09</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.833985724977766e-08</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1027845066415479</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8905966314849582</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6975364190299858</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.03364275310826958</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.005302942851825301</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.002877688962549973</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1934407179853768</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1853051272754155</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4220352917999475</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-4.495175722520507</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.015807815216099</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.056095443240083</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7736146410257283</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3570488664253256</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.8847200863585645</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.415680672062697</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.09916201143512109</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1406977091501202</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2692634509669825</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8367618899824908</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.8688539422627829</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8.592128357983956</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.9547444079724599</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5157547160900768</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.04086244953307765</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4354149436614152</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.8151225455202527</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0003950156247016664</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0005451837219194468</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0002245824927034563</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4570595957551863</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.006709710360905848</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.4499285069042597</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -997,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,22 +1491,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-29.6835379507403</v>
+        <v>-116.0099631773602</v>
       </c>
       <c r="C2" t="n">
-        <v>4.072639238905796</v>
+        <v>3.538776832410311</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.29910339519603</v>
+        <v>-18.21758208206635</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9951417357289535</v>
+        <v>0.9999966965429625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01666645992302998</v>
+        <v>0.03143343560469927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9898045195182537</v>
+        <v>0.9968716525000015</v>
       </c>
     </row>
     <row r="3">
@@ -1074,22 +1516,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03660890114868688</v>
+        <v>0.03380433768373326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3546503213222054</v>
+        <v>0.3614861481281726</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8371039465819448</v>
+        <v>-0.83197642697397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9587753071027381</v>
+        <v>0.9619244859972393</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03910711416585945</v>
+        <v>0.03537563340362166</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007543294572576217</v>
+        <v>0.007838767173048209</v>
       </c>
     </row>
     <row r="4">
@@ -1099,22 +1541,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-106.5122890989817</v>
+        <v>-52.67326920190129</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7153490246705483</v>
+        <v>-0.7143561652078628</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9729691065616151</v>
+        <v>-0.9422245289181589</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999999996866932</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009388514585366737</v>
+        <v>0.009422373812681521</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02921293982864298</v>
+        <v>0.03255369070896329</v>
       </c>
     </row>
     <row r="5">
@@ -1124,22 +1566,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8157109928306387</v>
+        <v>0.8072076369895389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03743486846156928</v>
+        <v>0.04957181125101753</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1784552418153251</v>
+        <v>-0.2014409166497073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.212238681349479</v>
+        <v>0.215819440976302</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8519478348832743</v>
+        <v>0.8044838409616504</v>
       </c>
       <c r="G5" t="n">
-        <v>0.516734427231321</v>
+        <v>0.4642731284184601</v>
       </c>
     </row>
     <row r="6">
@@ -1149,22 +1591,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7703089392134345</v>
+        <v>0.7145397052275193</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09416462347106128</v>
+        <v>0.07831738281091541</v>
       </c>
       <c r="D6" t="n">
-        <v>-20.80018577568875</v>
+        <v>-21.48335537838558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5593989418403004</v>
+        <v>0.588974933732948</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8861380383503579</v>
+        <v>0.9049150723588745</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9954229182931106</v>
+        <v>0.996410394690333</v>
       </c>
     </row>
     <row r="7">
@@ -1174,22 +1616,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6013734079376907</v>
+        <v>0.5988242155044775</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00826216750288983</v>
+        <v>0.001078579361223636</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7594850299006836</v>
+        <v>-0.7892739128673786</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3718681690018992</v>
+        <v>0.3733117746564576</v>
       </c>
       <c r="F7" t="n">
-        <v>0.96383360443918</v>
+        <v>0.9952669001615246</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02709443267363342</v>
+        <v>0.02097700050009634</v>
       </c>
     </row>
     <row r="8">
@@ -1199,22 +1641,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8966106181210884</v>
+        <v>-0.8982638523354018</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.06778206366402549</v>
+        <v>-0.07028738613360749</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1730903207771109</v>
+        <v>-0.1545238814317864</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0418369469698143</v>
+        <v>0.04009296683577769</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5712610700819658</v>
+        <v>0.5569168710696973</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3425338189498272</v>
+        <v>0.3950813592846699</v>
       </c>
     </row>
     <row r="9">
@@ -1224,22 +1666,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.74717922112009</v>
+        <v>21.2105245703111</v>
       </c>
       <c r="C9" t="n">
-        <v>2.008343121303382</v>
+        <v>1.998529362111183</v>
       </c>
       <c r="D9" t="n">
-        <v>2.631556570708833</v>
+        <v>2.604470203960318</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9966779122186161</v>
+        <v>0.9982742303503664</v>
       </c>
       <c r="F9" t="n">
-        <v>1.850161576956117e-21</v>
+        <v>2.400084670001385e-21</v>
       </c>
       <c r="G9" t="n">
-        <v>5.262426998914294e-06</v>
+        <v>6.281529807231528e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1249,22 +1691,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.0480983229564</v>
+        <v>19.48538851220968</v>
       </c>
       <c r="C10" t="n">
-        <v>1.440435203017685</v>
+        <v>1.388509804440601</v>
       </c>
       <c r="D10" t="n">
-        <v>2.600199299391594</v>
+        <v>2.594733729050573</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9969637489063566</v>
+        <v>0.9984145936862371</v>
       </c>
       <c r="F10" t="n">
-        <v>1.626465252798326e-05</v>
+        <v>3.101003744384497e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>3.044254735329902e-05</v>
+        <v>3.049249598464296e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1274,22 +1716,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.54570025413156</v>
+        <v>21.0071720857502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6812407582298918</v>
+        <v>0.6676863600103448</v>
       </c>
       <c r="D11" t="n">
-        <v>2.008161457044626</v>
+        <v>1.976916344666685</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9967118070334929</v>
+        <v>0.9982907755605535</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001701547897239614</v>
+        <v>0.002040976868195197</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001137775953811211</v>
+        <v>0.001330789096874058</v>
       </c>
     </row>
     <row r="12">
@@ -1299,22 +1741,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.94801645138148</v>
+        <v>21.4156520539448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9339553522949046</v>
+        <v>0.9111022341443051</v>
       </c>
       <c r="D12" t="n">
-        <v>2.398015401307489</v>
+        <v>2.363794529410649</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9966441253751386</v>
+        <v>0.9982575403658236</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0002216607824423278</v>
+        <v>0.0003058705819159089</v>
       </c>
       <c r="G12" t="n">
-        <v>4.418000162352231e-05</v>
+        <v>5.505203063383283e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1324,22 +1766,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.231849330909844</v>
+        <v>2.55830270311541</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1139662208696764</v>
+        <v>-0.139055949229571</v>
       </c>
       <c r="D13" t="n">
-        <v>1.323814570718686</v>
+        <v>1.296802117199279</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999860363628664</v>
+        <v>0.9998100182970662</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7141411495202532</v>
+        <v>0.6541551856318228</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05498214462443134</v>
+        <v>0.05966312819242049</v>
       </c>
     </row>
     <row r="14">
@@ -1349,22 +1791,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5896727154138137</v>
+        <v>0.5796013598815937</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0965049196363035</v>
+        <v>0.09590496848968513</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06439470112553916</v>
+        <v>-0.02389919580084924</v>
       </c>
       <c r="E14" t="n">
-        <v>0.509304952761926</v>
+        <v>0.5157857237700021</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6725061222828008</v>
+        <v>0.6737210789942827</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8705669417415386</v>
+        <v>0.9515724015663229</v>
       </c>
     </row>
     <row r="15">
@@ -1374,22 +1816,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-20.11480738023791</v>
+        <v>-22.26380235817658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7981468632173389</v>
+        <v>0.8096139566057945</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.008766384956140232</v>
+        <v>0.04430711446328496</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9995996171371201</v>
+        <v>0.9998494016991663</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01012962671094582</v>
+        <v>0.008885094879490444</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9889157129252998</v>
+        <v>0.9438632854343035</v>
       </c>
     </row>
     <row r="16">
@@ -1399,22 +1841,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.54566431851073</v>
+        <v>-18.5955414322035</v>
       </c>
       <c r="C16" t="n">
-        <v>1.833330632138482</v>
+        <v>1.863671569874044</v>
       </c>
       <c r="D16" t="n">
-        <v>2.103603116601963</v>
+        <v>2.176099138545893</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9971456494576751</v>
+        <v>0.9996817966155667</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005671481718411226</v>
+        <v>0.0004764598867619686</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004159565197234214</v>
+        <v>0.003167287453326066</v>
       </c>
     </row>
     <row r="17">
@@ -1424,22 +1866,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3265274917960399</v>
+        <v>0.3357408870035671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2802322148830848</v>
+        <v>0.2875036306517413</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1386540312790416</v>
+        <v>0.1486032842461033</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7488465115836584</v>
+        <v>0.742015134939082</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2623961783007738</v>
+        <v>0.2497647599862105</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7729646408008162</v>
+        <v>0.7572125263687997</v>
       </c>
     </row>
     <row r="18">
@@ -1449,22 +1891,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.673128455381019</v>
+        <v>2.688733847452641</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2354337826973935</v>
+        <v>0.2502594547840784</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6060744395185661</v>
+        <v>0.6842105408978575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01186612114515715</v>
+        <v>0.0110935015456629</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4933454579345957</v>
+        <v>0.4656089495702306</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2171496416938082</v>
+        <v>0.1598493454460147</v>
       </c>
     </row>
     <row r="19">
@@ -1474,22 +1916,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.068035223587755</v>
+        <v>3.011109299816482</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1464847288952144</v>
+        <v>0.1309740814907739</v>
       </c>
       <c r="D19" t="n">
-        <v>2.024839440778829</v>
+        <v>2.086937177189025</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02799880542214878</v>
+        <v>0.03029372380150806</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7449513880909553</v>
+        <v>0.7710693319555064</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001275890677608991</v>
+        <v>0.0008412780624983631</v>
       </c>
     </row>
     <row r="20">
@@ -1499,22 +1941,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-14.41045153588267</v>
+        <v>-6.851834397724652</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2555370386608338</v>
+        <v>0.305426560982401</v>
       </c>
       <c r="D20" t="n">
-        <v>1.433374381070075</v>
+        <v>1.495087372161986</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9982574309171074</v>
+        <v>0.963812105375956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.666899950439258</v>
+        <v>0.6046789736312449</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02045699312654465</v>
+        <v>0.01533125534222853</v>
       </c>
     </row>
     <row r="21">
@@ -1524,22 +1966,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.675137169430778</v>
+        <v>1.668414431235869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9673558355844959</v>
+        <v>0.9764118044768244</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4237112362505513</v>
+        <v>0.3619637675982451</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08789213491639299</v>
+        <v>0.08776594751892142</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0009447055829772129</v>
+        <v>0.0008152414296716961</v>
       </c>
       <c r="G21" t="n">
-        <v>0.466431428586806</v>
+        <v>0.5347024631970397</v>
       </c>
     </row>
     <row r="22">
@@ -1549,22 +1991,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.558988176220096</v>
+        <v>94.12349836471145</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.94617625917791</v>
+        <v>-1.993628923956599</v>
       </c>
       <c r="D22" t="n">
-        <v>12.41906655811535</v>
+        <v>14.9935568197317</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9932358919430712</v>
+        <v>0.9999973197742608</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1887041874277341</v>
+        <v>0.1752067826609396</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9922314843052656</v>
+        <v>0.9974252842315766</v>
       </c>
     </row>
     <row r="23">
@@ -1574,22 +2016,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.988678871704462</v>
+        <v>93.58369122385375</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.574223159382852</v>
+        <v>-2.545965937008286</v>
       </c>
       <c r="D23" t="n">
-        <v>10.08009559500573</v>
+        <v>12.67536141168775</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9936394450976498</v>
+        <v>0.9999973351456519</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09076242609797318</v>
+        <v>0.09228391964105068</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9936945503056558</v>
+        <v>0.9978233671077241</v>
       </c>
     </row>
     <row r="24">
@@ -1599,22 +2041,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.48679053430241</v>
+        <v>95.02037104419195</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.861728052413428</v>
+        <v>-1.918072416507374</v>
       </c>
       <c r="D24" t="n">
-        <v>12.50742061452332</v>
+        <v>15.16271795057054</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9925793780513475</v>
+        <v>0.999997294235101</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2037411664787921</v>
+        <v>0.1872689611646918</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9921762175067672</v>
+        <v>0.99739623572613</v>
       </c>
     </row>
     <row r="25">
@@ -1624,22 +2066,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.10763028357344</v>
+        <v>95.66095273391383</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.950845768992062</v>
+        <v>-1.995175895045216</v>
       </c>
       <c r="D25" t="n">
-        <v>12.53308048092525</v>
+        <v>15.20379591338439</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9921400755319323</v>
+        <v>0.999997275994306</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1838877544977883</v>
+        <v>0.1711555990301294</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9921601670039238</v>
+        <v>0.9973891817837496</v>
       </c>
     </row>
     <row r="26">
@@ -1649,22 +2091,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1470145313013588</v>
+        <v>-0.1485930801379207</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07389167239731607</v>
+        <v>0.08329512432608077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7233990592975929</v>
+        <v>0.6871025314634936</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7360337475302483</v>
+        <v>0.7319690907003794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5520306473455112</v>
+        <v>0.5020899702119072</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001775227202220717</v>
+        <v>0.0003372459733895734</v>
       </c>
     </row>
     <row r="27">
@@ -1674,22 +2116,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02708372183716072</v>
+        <v>0.0265442086041557</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007945843574989573</v>
+        <v>0.007821461668508495</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.007711545490217971</v>
+        <v>-0.006917271224678589</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2972661079896072</v>
+        <v>0.3072450877364122</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2496651084976196</v>
+        <v>0.2563862960008458</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4742829594987984</v>
+        <v>0.5218304636054771</v>
       </c>
     </row>
     <row r="28">
@@ -1699,22 +2141,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0003573725541924193</v>
+        <v>-0.0003562609245319232</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.001639469187968523</v>
+        <v>-0.00164280142646095</v>
       </c>
       <c r="D28" t="n">
-        <v>2.779702868967968e-05</v>
+        <v>2.456010119479264e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002000470947933388</v>
+        <v>0.001868237739717309</v>
       </c>
       <c r="F28" t="n">
-        <v>5.201338708716293e-102</v>
+        <v>4.336258471782798e-102</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2027161121305109</v>
+        <v>0.2565594642461834</v>
       </c>
     </row>
     <row r="29">
@@ -1724,22 +2166,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.536663321008664</v>
+        <v>-2.564851220266144</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.165306283948246</v>
+        <v>-3.145727194375885</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.890336798316969</v>
+        <v>-3.93035975629567</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0008463216379182062</v>
+        <v>0.0007184968962957888</v>
       </c>
       <c r="F29" t="n">
-        <v>1.534250089985005e-23</v>
+        <v>1.967965908735821e-23</v>
       </c>
       <c r="G29" t="n">
-        <v>2.936056907303552e-31</v>
+        <v>4.438651699849323e-32</v>
       </c>
     </row>
     <row r="30">
@@ -1749,272 +2191,247 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2926656258725766</v>
+        <v>0.3006276801972529</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1083221203749081</v>
+        <v>0.1054171972834694</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1111637899111897</v>
+        <v>0.1142563053750649</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1182492982063833</v>
+        <v>0.1064685930917601</v>
       </c>
       <c r="F30" t="n">
-        <v>0.057800440306542</v>
+        <v>0.06493942651873728</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1987765245661929</v>
+        <v>0.1849808286706528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005604619796199635</v>
+        <v>0.0005672501702399535</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001072313129174318</v>
+        <v>9.891735484821535e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001797010564280946</v>
+        <v>0.0001962282409227045</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05778559896514025</v>
+        <v>0.05137095691238708</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1329945449388327</v>
+        <v>0.1750663940943207</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1276394180302067</v>
+        <v>0.09110409612726755</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1804858180107146</v>
+        <v>0.1672749243725621</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1177952013854167</v>
+        <v>0.1133794580313517</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1194292635493266</v>
+        <v>0.1140124934264433</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4754504268466906</v>
+        <v>0.5070494445665878</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0235958029359706</v>
+        <v>0.02854153044499007</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1856648092502645</v>
+        <v>0.2052848712668667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.03459893790876956</v>
+        <v>-0.02410917098745189</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0003101110379332282</v>
+        <v>0.006535932756599094</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0788816602199866</v>
+        <v>-0.07489148095172973</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7984193188414253</v>
+        <v>0.8579037086794822</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9923721701708879</v>
+        <v>0.8394413310427435</v>
       </c>
       <c r="G33" t="n">
-        <v>0.187102463858108</v>
+        <v>0.2066683106659669</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-6.552319222378718e-07</v>
+        <v>-6.595825679564388e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.483578613532178e-08</v>
+        <v>-6.828237713708596e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>-9.167144052266955e-08</v>
+        <v>-7.477732136286573e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01594257343580705</v>
+        <v>0.01293831869557446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2806567468328984</v>
+        <v>0.2571248230544896</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3587876941935849</v>
+        <v>0.4379179581644523</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.003412660486605739</v>
+        <v>-0.05135334668657644</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.008724762638235517</v>
+        <v>0.005713882959803376</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01502204458918889</v>
+        <v>0.002122182781068364</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8764227216183273</v>
+        <v>0.06025384290251471</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1460120768325514</v>
+        <v>0.1307365898935921</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0897016199001336</v>
+        <v>0.5514502042926072</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.05394813975346353</v>
+        <v>-11.26551280040594</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002032289403981487</v>
+        <v>6.800552229239513</v>
       </c>
       <c r="D36" t="n">
-        <v>0.005243739147009751</v>
+        <v>4.329853701941399</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08524643929305402</v>
+        <v>0.4893618523697358</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6584559280464446</v>
+        <v>0.1131427867681124</v>
       </c>
       <c r="G36" t="n">
-        <v>0.188888634018435</v>
+        <v>0.5332769714581442</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-11.09054366562835</v>
+        <v>-1.089325683517439</v>
       </c>
       <c r="C37" t="n">
-        <v>7.423140149597222</v>
+        <v>-0.4117245566349155</v>
       </c>
       <c r="D37" t="n">
-        <v>3.849721579184846</v>
+        <v>-0.3856044195214885</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5015264564859708</v>
+        <v>0.6164353561420296</v>
       </c>
       <c r="F37" t="n">
-        <v>0.086707875782571</v>
+        <v>0.3838316579283302</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5872938750348364</v>
+        <v>0.6462500755511873</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.9815382354157152</v>
+        <v>10.61030474733986</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01865913735994358</v>
+        <v>-0.1263473758827936</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.06829329018466</v>
+        <v>0.6030954693211164</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6782048255508968</v>
+        <v>0.01209150364267874</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9719238114242996</v>
+        <v>0.9159749792348348</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2642053818619848</v>
+        <v>0.7611077510905779</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10.58893471777283</v>
+        <v>4.844898097035505e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1335975570097468</v>
+        <v>0.0005324458864833276</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2192680570106266</v>
+        <v>0.0001128666226263611</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01305631723626693</v>
+        <v>0.9272620921589215</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9111583792456242</v>
+        <v>0.007866250794252726</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9157354377022097</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>9.570485341714189e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0005973781864619426</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.40091461232929e-06</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.874303178878552</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.00340190802264792</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.9936099438466551</v>
+        <v>0.6929256151262521</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,24 +2496,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2.036325986358472</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.997612460406285</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-15.64794423328861</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.6842152521617755</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.003546814378098474</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9865499589756844</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2104,24 +2509,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.04553935948651636</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2487785297365909</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.7231467689189127</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9394712284424511</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.143830699129683</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01529189738342684</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2129,24 +2522,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-16.52660773530026</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.8153275659735345</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.285671130397767</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9923942053832774</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003104196838179654</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.005191203576109099</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2154,24 +2535,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.4882277321838653</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07004657512003545</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2099182297727341</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4186664545553004</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7254508779665818</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4466302501409875</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2179,24 +2548,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.5107122823767483</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1023783609275129</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-13.95350797497991</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.680459018011256</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8762454825150918</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8966982081767865</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2204,24 +2561,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.348500769376985</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.00198709184677231</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.8649968270680014</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5597214804922908</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9912923470044018</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01037471986010095</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2229,24 +2574,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.4629281748607511</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.1311110528425488</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.09654304201131089</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2422069881464339</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.2722690729038474</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5937671545585088</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2254,24 +2587,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2.486355950455565</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.843393559087113</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.960268771641154</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02590444981891057</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.643508276983602e-18</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.30937861906906e-05</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2279,24 +2600,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.3526687890639326</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.271181418659445</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.737486783580077</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7977426615184396</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0001009329753382603</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0007330856184358145</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2304,24 +2613,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.55817987901179</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.634491984042142</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.301568399835613</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.02095674969393669</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.003172677088013665</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.009611838501671797</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2329,24 +2626,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.934501776844758</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8654548549676669</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.7176514967167</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.01089416291926873</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0005852781020536969</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.00018338729687644</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2354,24 +2639,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-18.2602830793639</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.1106278197982203</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7162626858890887</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9989079601378603</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7300189400797992</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2482131940607823</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2379,24 +2652,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.2842665500134187</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.03741549245367495</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.0949004069944413</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.7381519863995301</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8726228703390949</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8115521067168485</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2404,24 +2665,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-4.707652430803707</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7948046517456824</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.07418984042577588</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.7615800303564259</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.01031828534580633</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9052130223466422</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2429,24 +2678,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-18.87116502671865</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.490062778808872</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.035395192695427</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.999615382812771</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.003251685399238258</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.003170307575598927</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2454,24 +2691,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.200208724704445</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3671890656911085</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2104986151563803</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.8326697013537543</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1412684165625981</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.6593616357460599</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2479,24 +2704,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2.652793481581859</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3146391977899187</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8985916034516384</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.005556229864420349</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.3533543471321994</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.05601651447239156</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2504,24 +2717,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>3.709622857063853</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.07980065747499922</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.031212285923353</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.002650135569092313</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8597955747928731</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.001026275810955965</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2529,24 +2730,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-10.70838331210635</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4772327015477101</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.436859520738848</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.99221414031092</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.4678821679540739</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.03363759815860484</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2554,24 +2743,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1.230857827965947</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9753367972121914</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5894082024397592</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1880140977484813</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0008388680603679129</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2633443413208979</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2579,24 +2756,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>-2.881251455490014</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.97284555468342</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11.96510987890546</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4028261077760408</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1858414127718141</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9897152963520127</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2604,24 +2769,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>-2.986528470798019</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.697657077532147</v>
-      </c>
-      <c r="D23" t="n">
-        <v>9.621467754687879</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.3881767343742927</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.07755141591898919</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9917297119813379</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2629,24 +2782,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>-1.206363486846645</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.882063999617601</v>
-      </c>
-      <c r="D24" t="n">
-        <v>12.25251826542927</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.7143709044136555</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.2018435672175209</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9894682654937031</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2654,24 +2795,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>-0.6499480271128524</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-2.071763915483872</v>
-      </c>
-      <c r="D25" t="n">
-        <v>12.27313512381279</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8440333264527579</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.160876925952373</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9894505452297472</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2679,24 +2808,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.2648957182357616</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1064522170462044</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6321631828553708</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5113569978144599</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.3923829237693053</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0009870738458235633</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2704,24 +2821,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.02286254117968523</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.004508718188371281</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.009786160125881353</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.3282648572141004</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.5100983016250284</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.355269932451731</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2729,24 +2834,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-0.0003651676707226424</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.001694849056725341</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2.363556449789164e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0008989995832246966</v>
-      </c>
-      <c r="F28" t="n">
-        <v>8.741445434993558e-103</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.2659872832575829</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2754,24 +2847,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-2.363702633392056</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-3.192710676910968</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-3.889638777849115</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.001705158645051812</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.323480182317672e-24</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.265971950642583e-31</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2779,274 +2860,129 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.1828935086054455</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1508572252808335</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1652746367440326</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.289945648451949</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.008020618699964078</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.04643088743004099</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0003031456728853015</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4.663228461040512e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>8.485611707211656e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.2279707690665644</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.5190090295164831</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.4922568936330883</v>
-      </c>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.1444056167072535</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.07222127915375634</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1002542044990813</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5087173915648879</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.154633984711353</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.2577296770199355</v>
-      </c>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.005317165260327562</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.0001763902343881107</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.03658064762112659</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9611715421778823</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.9956539117815791</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.5328569737734334</v>
-      </c>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-5.48079151719618e-07</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-6.477102938534709e-09</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-4.463347197485868e-08</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.02156140616660595</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.9147293557982505</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.6675876560765084</v>
-      </c>
+          <t>UrbBuildDensity_res</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.02341099381207551</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.01192239046743951</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.01608365682380949</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.2391913514391738</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.05031544696716669</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.06555802193683841</v>
-      </c>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.07437974220021354</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.00143024009375777</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.006309772967273984</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.01000867392477179</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.7750244379010446</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.1040017127512779</v>
-      </c>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-9.54257470924056</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6.23446739570505</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.3153761007406703</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5304197762620697</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.1440174394724754</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.9655218800024685</v>
-      </c>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1.67927048230465</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.198434551346327</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.3569228012892096</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.4122618450078033</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.7081613742916737</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.7078548032332073</v>
-      </c>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>8.612952899561037</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.9841982699322624</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.9982793224933182</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.02988476630987747</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.4133042388024923</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.6583966078953993</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0007634220533313735</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0006958006745317891</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.000289646591570801</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.1625956918839349</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0006623324081383793</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.3371154814931296</v>
-      </c>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3059,7 +2995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3484,7 +3420,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -3497,7 +3433,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -3510,7 +3446,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -3523,7 +3459,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -3536,7 +3472,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -3549,7 +3485,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3562,7 +3498,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3575,7 +3511,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3588,7 +3524,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3597,19 +3533,6 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3622,7 +3545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3673,24 +3596,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-1.311582547623302</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.023374862529775</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-19.66646642886155</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9857461323999011</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.05182884631829685</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9985842418902489</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3698,24 +3609,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1361751354415356</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3755588507930335</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.6150316904052179</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8211857557128941</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.02830966885935693</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.04451578406087082</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3723,24 +3622,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-77.67721293567467</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6594111179927096</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.119409106043834</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9999999999999981</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01568148316053254</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0131958917750413</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3748,24 +3635,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.4428789749320808</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04253691762214146</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.1437410371911822</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4675937347460398</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8311235577709779</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.607257203801657</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3773,24 +3648,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.8922002450014184</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.4163290304751597</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-19.1826607012062</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4808687752572235</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5630136282501758</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9909635295253225</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3798,24 +3661,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.2880316068907457</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.04740767769672382</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.9084786824383969</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.6275921549012662</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7943561212039258</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.009484101335283443</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3823,24 +3674,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.5281326038992862</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.08812602157077047</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.3095773691631771</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1792640087956455</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4629325180070457</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.09231189241321999</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3848,24 +3687,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2.745896272554512</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.940758643553804</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.025001023510103</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01429211755469098</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.028161072204809e-20</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.135765586971071e-06</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3873,24 +3700,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.6714809834925548</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.491439717962656</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.056403307738246</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6268235575753687</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.521732256680711e-06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.64231787992068e-05</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3898,24 +3713,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.696419306459144</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6509342341564821</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.311356130029078</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01571473534220713</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.002625144535011933</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.007475344556006456</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3923,24 +3726,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3.127613112064739</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9860544307068367</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.647007388445185</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.006762373374569521</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0001442374545834066</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0002792580851732159</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3948,24 +3739,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-12.60488889504074</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05312248380151131</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6175549551424445</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9869799942165051</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.8660157377954023</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2965071740469811</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3973,24 +3752,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.3774679271771423</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05349685580227897</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.03348738112045756</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6584040085496241</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8200137754356269</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9322985450464101</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3998,24 +3765,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-5.982283783300199</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9646827952696954</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2725156734867249</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.8309382506634274</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.001763340934945891</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.630042797500888</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4023,24 +3778,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-18.40771791938512</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.107140603744556</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.79413674349103</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9994959220169979</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.02462487639064108</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.01871161338716857</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4048,24 +3791,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.07284752818866587</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2828940725071315</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.05296114034772605</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9391603294724418</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2618141199129917</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.9124160691524248</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4073,24 +3804,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2.608129148063292</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1783614811878178</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7660066805643947</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.00480781466421874</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.5983271884380774</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.107907234445136</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4098,24 +3817,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>3.414392253981705</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.06013020567829087</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.718311782158474</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.005653214979105133</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8940704378897079</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.006724186765122167</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4123,24 +3830,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-18.80688679872024</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05771873854728719</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.282323104155326</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9997062668018111</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.924825487056147</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.04798557891704375</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4148,24 +3843,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1.609033931766508</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.235554707125354</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7642900727448037</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.08324827354515664</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5.561999387967101e-05</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1626497693344</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4173,24 +3856,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>1.645432332221836</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.433863030976423</v>
-      </c>
-      <c r="D22" t="n">
-        <v>16.21649761744293</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9820952543963498</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.4458919533685289</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9988325995403697</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4198,24 +3869,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>1.314750372532113</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.32369808547288</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13.60112461716122</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9856932019989297</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2244020823571071</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9990208760749653</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4223,24 +3882,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>3.020134521204341</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.590748431360631</v>
-      </c>
-      <c r="D24" t="n">
-        <v>16.18921709184218</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9671397603821604</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.3947014312642513</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.998834563420967</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4248,24 +3895,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>3.585353053538797</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1.567745558099477</v>
-      </c>
-      <c r="D25" t="n">
-        <v>16.22109310077972</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9609946804584101</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.4021510933355128</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9988322687182867</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4273,24 +3908,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.3394851997968596</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1458169450661997</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6667139621833073</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.3984943045637346</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2422269046248139</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0006861110424846967</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4298,24 +3921,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.0236723875945476</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.004352564793475129</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.005028800421868856</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.3256359521916179</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.5345947965824744</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.6449887300694833</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4323,24 +3934,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-0.000389382008367993</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.001671660959720801</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2.872130541246681e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0004504898919187244</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.954873691382773e-102</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.186730255122328</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4348,24 +3947,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-2.470401280424714</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-3.102962782509547</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-3.899827181576599</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0003393079740656218</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4.805208160404579e-24</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7.415125477858e-32</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4373,274 +3960,129 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.1869863332322799</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1200724073251845</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.2211728700621342</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.2668807465939285</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.03480247828767263</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.008102690077035788</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0003307457146127726</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5.925719127120685e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0001267696761058947</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1687076380857586</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.4003986398906948</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2971742393491984</v>
-      </c>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.1490453797160665</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.07785821790412589</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0818429665798</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.4872900242250737</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.1285439460985817</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.3576330894482449</v>
-      </c>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.021000202401538</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.009601756185656993</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.05090201486943643</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.8474020832426946</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7641065510754205</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.3926984572593728</v>
-      </c>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-4.701715475133887e-07</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-2.089987737865548e-08</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-7.588725449978751e-08</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.03772233341926295</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.7241486310674385</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.4631429238940433</v>
-      </c>
+          <t>UrbBuildDensity_res</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.0295571693668921</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.00877063009449316</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.01543274555426223</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.1518619106545943</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.1468495707306416</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.08067156191195149</v>
-      </c>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.08299569748513813</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-1.992569461637682e-05</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.005157722977432936</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.004400746312215513</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.9967043400165003</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.2117604868828337</v>
-      </c>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-8.664255242149739</v>
-      </c>
-      <c r="C37" t="n">
-        <v>8.073382371592867</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6.821340206700656</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5653286386229535</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.06325650123438858</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.3454468963581386</v>
-      </c>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1.70001722496594</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.2583098911965606</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.8332032539859664</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.3858562762529746</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.6291932587528757</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.3969263079024099</v>
-      </c>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>8.062412270788908</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.2210077371334152</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.6034039385047454</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.03508219958384123</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.8530610878527691</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.7779160930789276</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0006251306871582882</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0005645591595197513</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.000133345279930722</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2495263416404779</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.004685972938434578</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.659239688956397</v>
-      </c>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4653,7 +4095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4704,12 +4146,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-8.042293659798794</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.567846294476512</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-18.44635175363724</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9876895833415433</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01730909457188224</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9978707358129225</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4717,12 +4171,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.4280801075848193</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2732571718106859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.6006094317233323</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5026544959741025</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1049497110494275</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04687040812899493</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4730,12 +4196,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-31.54990376912126</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.8150952493865659</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.169497410449834</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.999991231420735</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.002606124595149311</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008460713447061128</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4743,12 +4221,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.7226825667258379</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.005776377056281019</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2345057583741325</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2598791065576824</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9766969995752032</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3962738917171941</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4756,12 +4246,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.6699253232620672</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08883477842678252</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-17.42633897698108</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6051522707062125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8916216535530388</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9953527676077533</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4769,12 +4271,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.688830554325439</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.06624603171238772</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.6969267794342455</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.272911794739272</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.712816572505547</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03700051070563562</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4782,12 +4296,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-0.627108020559339</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1264005347568134</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2160213738922992</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1257698284672948</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2886484691943179</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.231035449404827</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4795,12 +4321,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2.705930275743873</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.911203204645665</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.051430823060549</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01462352640228919</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.255961322082882e-20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.622172893762515e-06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4808,12 +4346,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>-0.1492561790541658</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.446520877733486</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.053272831839272</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9232560467374122</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.502092716369585e-06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.957666733292577e-05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4821,12 +4371,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2.346882854821775</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7028440251487915</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.274939808287811</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03683370981047267</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001047584337965411</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01231542267243064</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4834,12 +4396,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2.944015670559301</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8830025437564957</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.937579574074302</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01084604273103851</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0004848790949882178</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.1394274984195e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4847,12 +4421,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-17.9293962411792</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.05316867873195558</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8068088555584233</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9986499656196877</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8643988395071533</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1664771193485177</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4860,12 +4446,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.2671542718711165</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0862547341246732</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.1627504005502781</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7535755578381088</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7082466489802588</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6969916291604288</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4873,12 +4471,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-17.83259506649047</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8492070319740983</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5079903195908025</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9986937680082578</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.006086594108794211</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3801959981277679</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4886,12 +4496,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-24.44134366764822</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.375123800298491</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.252525285542208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9999673703024662</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.003495158487646502</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0007862476544485548</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4899,12 +4521,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0.03551540420029707</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2964263586232666</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.02832669890034423</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9703808869277204</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2317929893201124</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9541493902574871</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4912,12 +4546,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2.511306633237052</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3522828092406679</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.138752686270928</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.007337699776054716</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2934725516393902</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01507189564564277</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4925,12 +4571,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>2.47699826570545</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06413966123371805</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.444036537209092</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.08168000010981104</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8889989125010663</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.000108268051510186</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4938,12 +4596,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-10.66939502974859</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1278562808159845</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.673377130078688</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9925470743512328</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8354705011342475</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.007309298865945358</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4951,12 +4621,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1.398971776169663</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.040471289362054</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7207613835088302</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1292045964315752</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.000309077681550987</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1605124321340222</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4964,12 +4646,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>7.165600075937727</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.554345909545118</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.2446998996378</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.989031263192534</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1564681727547637</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9982403021238921</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4977,12 +4671,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>8.232183635930909</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.286100668018832</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.91191933473463</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9873987159076303</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.07315744333437071</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9985095749766459</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4990,12 +4696,24 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>8.802384752375119</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.557181890762671</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15.80943230953141</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9865259295175219</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1528708206413413</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9981751150901439</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5003,12 +4721,24 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>9.315490356295841</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.629515331342321</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.08689377149156</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9857405868285448</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1421812660212928</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.998143087733517</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5016,12 +4746,24 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>-0.2769686392392187</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.04488323187813274</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4891425734083499</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.505601050577857</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7167926459268695</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01030865464394921</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5029,12 +4771,24 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>0.01571395735945968</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005918303278350324</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.004996617405688145</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5120009943839556</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3929837550612594</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6458225271904705</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5042,12 +4796,24 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-0.0003322215886648258</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.001614210919346806</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.12373076483495e-06</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.002691408913440775</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.950772896447027e-103</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6825190365258798</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5055,12 +4821,24 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>-2.219484499462457</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.178871174415979</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.081130225816909</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.003285809484784582</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.719406202893429e-24</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.251674816955125e-35</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5068,142 +4846,249 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>0.09636387882392086</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.08119326188657504</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1798969628952803</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5914756485653897</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1559453266158935</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03062837354195573</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0002611740436814824</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.944791958649422e-05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.933326332806266e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3356925015481683</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2876750737549457</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6246279166536577</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.02925476776088131</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1026324027604622</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.124599502124927</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9138601070973075</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.04162686078584456</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1829617392715274</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.01779451233765966</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.006646651194405242</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.04810376940074503</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8840217809888528</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8371321065812549</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4337061476477739</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>UrbBuildDensity_res</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-4.446855132258902e-07</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-3.571334499011877e-08</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.164193555997109e-08</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.06318729041854733</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.557756212150433</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9079271664129233</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.07747917141524759</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.00492167422653567</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.002549581653455874</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.009624831342371827</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1899754140519007</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4836834874122825</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-16.17775135842051</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.036080229046016</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.795142500652965</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3487956613458699</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.09668076438542096</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7035310034146531</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.303238204799357</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.2471486807625171</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5020511038224947</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5124435865377197</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6093642737929289</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5533699422865996</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7.174502916947534</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.4589249278502981</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.6101276486620358</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1306846194342531</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7119866797386258</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7784458493505937</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0003457894001179315</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0004367461673882797</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0004367614180307206</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5656023832794276</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02890661626062544</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1382841525583144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5216,7 +5101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5268,22 +5153,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.462791384409398</v>
+        <v>-16.75777006484893</v>
       </c>
       <c r="C2" t="n">
-        <v>5.304025598467835</v>
+        <v>3.927090417685072</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.88439939289292</v>
+        <v>-22.38594936960777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994388984247908</v>
+        <v>0.9987441765533239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006614189608487036</v>
+        <v>0.01009654993537424</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9763763822392196</v>
+        <v>0.9995579773842984</v>
       </c>
     </row>
     <row r="3">
@@ -5293,22 +5178,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4570110438315233</v>
+        <v>0.1459069497362758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2707271742721411</v>
+        <v>0.3233543728231111</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6005698524909964</v>
+        <v>-0.7271779028902364</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4751827255197956</v>
+        <v>0.8333437928151527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1086511210647418</v>
+        <v>0.05480943390782958</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04727063946208381</v>
+        <v>0.01685926470898007</v>
       </c>
     </row>
     <row r="4">
@@ -5318,22 +5203,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-36.91691080339329</v>
+        <v>-37.95744433388443</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8191855629794345</v>
+        <v>-0.8410603994457282</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.195250177999355</v>
+        <v>-1.29954505499837</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999993639090238</v>
+        <v>0.9999995632246698</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002512667793234653</v>
+        <v>0.00168891799004401</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007830047354365075</v>
+        <v>0.004223986338254711</v>
       </c>
     </row>
     <row r="5">
@@ -5343,22 +5228,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6790639911193511</v>
+        <v>0.1002473764294895</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.02254628618896712</v>
+        <v>-0.00183717820416166</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2086822942467334</v>
+        <v>-0.2740326990272174</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2929127856975304</v>
+        <v>0.90857956679165</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9093958096527076</v>
+        <v>0.9924534814289815</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4502350686877644</v>
+        <v>0.3160848151740246</v>
       </c>
     </row>
     <row r="6">
@@ -5368,22 +5253,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7627022401738469</v>
+        <v>0.553473405018207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1152476211461097</v>
+        <v>0.405729115945167</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.52182597824585</v>
+        <v>-26.97501884567497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5597879619382963</v>
+        <v>0.6863749042640978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8598576067200449</v>
+        <v>0.5561281207980355</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9745813081117615</v>
+        <v>0.9997113024669618</v>
       </c>
     </row>
     <row r="7">
@@ -5393,22 +5278,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.656143647302787</v>
+        <v>0.6212108039653654</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.08004995908472737</v>
+        <v>-0.05340985280886571</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6723374190263222</v>
+        <v>-0.8885215132627807</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2985608629359422</v>
+        <v>0.3645396349142633</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6576363767523938</v>
+        <v>0.7662268109957578</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04549308978391695</v>
+        <v>0.009048260392462251</v>
       </c>
     </row>
     <row r="8">
@@ -5418,22 +5303,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.53674325237895</v>
+        <v>-0.4855058137722925</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.12496551740675</v>
+        <v>-0.07254703732778185</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2254778607266077</v>
+        <v>-0.2317585398604279</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1948440183961501</v>
+        <v>0.2798251361217235</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2944537231732789</v>
+        <v>0.5378253060962839</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2122060864411547</v>
+        <v>0.2013831284729367</v>
       </c>
     </row>
     <row r="9">
@@ -5443,22 +5328,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.704307826725605</v>
+        <v>2.213388121611421</v>
       </c>
       <c r="C9" t="n">
-        <v>1.933605299671446</v>
+        <v>1.865073753679467</v>
       </c>
       <c r="D9" t="n">
-        <v>2.087219954407324</v>
+        <v>2.201845049784594</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01548407344575104</v>
+        <v>0.05110161213839405</v>
       </c>
       <c r="F9" t="n">
-        <v>1.627012233444681e-20</v>
+        <v>7.727970689522016e-20</v>
       </c>
       <c r="G9" t="n">
-        <v>5.266793875929121e-06</v>
+        <v>1.753829789708604e-06</v>
       </c>
     </row>
     <row r="10">
@@ -5468,22 +5353,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2597718708448999</v>
+        <v>-0.4215792111126531</v>
       </c>
       <c r="C10" t="n">
-        <v>1.512668440831423</v>
+        <v>1.394101574572185</v>
       </c>
       <c r="D10" t="n">
-        <v>2.053731489997974</v>
+        <v>2.112759261586553</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8675089031401539</v>
+        <v>0.7890523692611739</v>
       </c>
       <c r="F10" t="n">
-        <v>3.566640697303923e-06</v>
+        <v>1.592314104006744e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>6.55909406369309e-05</v>
+        <v>5.698431555127548e-05</v>
       </c>
     </row>
     <row r="11">
@@ -5493,22 +5378,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.339136629255167</v>
+        <v>2.118632200961098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.720715611445882</v>
+        <v>0.6546840721940785</v>
       </c>
       <c r="D11" t="n">
-        <v>1.301231010341539</v>
+        <v>1.476997402256973</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0386611101277185</v>
+        <v>0.06080587025484035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0008216848787561308</v>
+        <v>0.002058827593797578</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01113992695234413</v>
+        <v>0.003672880591194143</v>
       </c>
     </row>
     <row r="12">
@@ -5518,22 +5403,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.889757748092334</v>
+        <v>2.531172057076714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9155925145705264</v>
+        <v>0.9257010959088369</v>
       </c>
       <c r="D12" t="n">
-        <v>1.995018462977564</v>
+        <v>2.110252108574149</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01301809785726826</v>
+        <v>0.04209046728307083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000305376864306779</v>
+        <v>0.0002996905188886445</v>
       </c>
       <c r="G12" t="n">
-        <v>2.043737234816841e-05</v>
+        <v>6.391382560538687e-06</v>
       </c>
     </row>
     <row r="13">
@@ -5543,22 +5428,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12.69107056152677</v>
+        <v>-17.42071165227826</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02450980629256864</v>
+        <v>-0.1388464838977834</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8450645358153124</v>
+        <v>0.919979697434186</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9866433150660647</v>
+        <v>0.9979016849294871</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9374285800358966</v>
+        <v>0.6678767759305855</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1493780764161807</v>
+        <v>0.1253300347554208</v>
       </c>
     </row>
     <row r="14">
@@ -5568,22 +5453,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3671629976430889</v>
+        <v>1.057709513584878</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08370435531752865</v>
+        <v>0.07584952677393775</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2132784683854937</v>
+        <v>-0.06257741127821168</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6686374850859917</v>
+        <v>0.2656324222752231</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7171018889522949</v>
+        <v>0.7360732550107253</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6108670414132862</v>
+        <v>0.8697669163893366</v>
       </c>
     </row>
     <row r="15">
@@ -5593,22 +5478,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-23.30711190324712</v>
+        <v>-22.03587128459717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8503131990532342</v>
+        <v>0.7064014410518049</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4805482719475918</v>
+        <v>0.5185850676927757</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998854724732326</v>
+        <v>0.9998239055715081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006280554208698476</v>
+        <v>0.02019871828695462</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4068882877037874</v>
+        <v>0.3514992593922026</v>
       </c>
     </row>
     <row r="16">
@@ -5618,22 +5503,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.67847060924156</v>
+        <v>-12.79910309262526</v>
       </c>
       <c r="C16" t="n">
-        <v>1.342003360808169</v>
+        <v>1.416179452578773</v>
       </c>
       <c r="D16" t="n">
-        <v>2.224043687045135</v>
+        <v>2.305108213773697</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998856452353904</v>
+        <v>0.9954767873889172</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004307746800272157</v>
+        <v>0.00390952362159651</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0009028669120142642</v>
+        <v>0.0008345982443709637</v>
       </c>
     </row>
     <row r="17">
@@ -5643,22 +5528,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02371908279900209</v>
+        <v>-0.05177521754202106</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2831267462481557</v>
+        <v>0.2868442542425261</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04182682861396853</v>
+        <v>0.02246084067238286</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9806037696905685</v>
+        <v>0.9637100796116569</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2544358894241546</v>
+        <v>0.2461114849910537</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9324505913053602</v>
+        <v>0.9633767136045864</v>
       </c>
     </row>
     <row r="18">
@@ -5668,22 +5553,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.451705570464616</v>
+        <v>3.53988356473795</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3368238557665179</v>
+        <v>0.3153496501029089</v>
       </c>
       <c r="D18" t="n">
-        <v>1.072822363743025</v>
+        <v>0.7049336049233238</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01040656780466847</v>
+        <v>0.002465811504160927</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3160834037112475</v>
+        <v>0.3544106348740209</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02303743512066138</v>
+        <v>0.1439527108975532</v>
       </c>
     </row>
     <row r="19">
@@ -5693,22 +5578,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.601960965169987</v>
+        <v>4.229743980380598</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06551813864006109</v>
+        <v>-0.0888814217371873</v>
       </c>
       <c r="D19" t="n">
-        <v>2.398170434939479</v>
+        <v>2.265106578357161</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07087848245277141</v>
+        <v>0.003129083192921903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8867309701519804</v>
+        <v>0.8476040861642808</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001503545406377868</v>
+        <v>0.0002540676161091735</v>
       </c>
     </row>
     <row r="20">
@@ -5718,22 +5603,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-17.14437158862655</v>
+        <v>-19.03172640862191</v>
       </c>
       <c r="C20" t="n">
-        <v>0.067983508185274</v>
+        <v>0.2134902590840763</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633495561921354</v>
+        <v>1.411225088927297</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9995259320273163</v>
+        <v>0.9998692003038091</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9126097495669205</v>
+        <v>0.7315989131741292</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008913796612711912</v>
+        <v>0.03097472478610521</v>
       </c>
     </row>
     <row r="21">
@@ -5743,22 +5628,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.210393309862219</v>
+        <v>1.914786235732912</v>
       </c>
       <c r="C21" t="n">
-        <v>1.024608992169304</v>
+        <v>0.9093938030894458</v>
       </c>
       <c r="D21" t="n">
-        <v>0.816550011760147</v>
+        <v>0.6387137866068034</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1971512485875974</v>
+        <v>0.06233451229294547</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0003910086536519607</v>
+        <v>0.001572656567002404</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1120639366386853</v>
+        <v>0.2153784493032993</v>
       </c>
     </row>
     <row r="22">
@@ -5768,22 +5653,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.53104832833742</v>
+        <v>13.3650173255496</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.446525972699184</v>
+        <v>-1.767292065030162</v>
       </c>
       <c r="D22" t="n">
-        <v>9.914180709269889</v>
+        <v>19.05923325800108</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9991028619607928</v>
+        <v>0.9989984284620108</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1741599704240857</v>
+        <v>0.1885141759772523</v>
       </c>
       <c r="G22" t="n">
-        <v>0.983130269281577</v>
+        <v>0.9996236651785745</v>
       </c>
     </row>
     <row r="23">
@@ -5793,22 +5678,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.60443456008183</v>
+        <v>13.75976034451295</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.259209817137311</v>
+        <v>-2.52186370487374</v>
       </c>
       <c r="D23" t="n">
-        <v>7.597519830508157</v>
+        <v>16.67887355840741</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9990316941439101</v>
+        <v>0.9989688465217781</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07509315348821138</v>
+        <v>0.06918384711308967</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9870718499051752</v>
+        <v>0.999670666659491</v>
       </c>
     </row>
     <row r="24">
@@ -5818,22 +5703,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.27528994170139</v>
+        <v>14.73165739457553</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.449694082250343</v>
+        <v>-1.909094106799954</v>
       </c>
       <c r="D24" t="n">
-        <v>10.41927935161682</v>
+        <v>19.64473328377711</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9989872149868643</v>
+        <v>0.9988960128053204</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1703180653917969</v>
+        <v>0.1496661804217271</v>
       </c>
       <c r="G24" t="n">
-        <v>0.982270937170858</v>
+        <v>0.999612104166232</v>
       </c>
     </row>
     <row r="25">
@@ -5843,22 +5728,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79408148290906</v>
+        <v>14.71525527698887</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.533889973389239</v>
+        <v>-1.92713195984909</v>
       </c>
       <c r="D25" t="n">
-        <v>10.67958495103814</v>
+        <v>19.76716374120269</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9989528179968469</v>
+        <v>0.9988972419762975</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1566757468348816</v>
+        <v>0.1468341990842024</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9818280866153349</v>
+        <v>0.9996096867111373</v>
       </c>
     </row>
     <row r="26">
@@ -5868,22 +5753,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.359744195240055</v>
+        <v>-0.3952551108632429</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03239299841773715</v>
+        <v>0.1128463768783421</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5409329649867655</v>
+        <v>0.7608170307892302</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3971345423186443</v>
+        <v>0.389183305760422</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7937562616092331</v>
+        <v>0.3617533830652998</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004923908260051081</v>
+        <v>9.202248809593632e-05</v>
       </c>
     </row>
     <row r="27">
@@ -5893,22 +5778,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01593338100076963</v>
+        <v>0.04366626533117902</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006197849066007864</v>
+        <v>0.004535716818530325</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.005611831526236078</v>
+        <v>-0.009129010489112023</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5111662971817392</v>
+        <v>0.1360728092472175</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3717648778834916</v>
+        <v>0.5108144411470188</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6045510311616611</v>
+        <v>0.3853794252355763</v>
       </c>
     </row>
     <row r="28">
@@ -5918,22 +5803,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0003464037581429699</v>
+        <v>-0.0003553634172709886</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.001612421720348474</v>
+        <v>-0.001588672990686672</v>
       </c>
       <c r="D28" t="n">
-        <v>1.33841819886364e-05</v>
+        <v>1.582998047897121e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002077471715165932</v>
+        <v>0.004295783145606057</v>
       </c>
       <c r="F28" t="n">
-        <v>6.052538826763314e-103</v>
+        <v>1.060548973500196e-101</v>
       </c>
       <c r="G28" t="n">
-        <v>0.55147405767665</v>
+        <v>0.4647371643320091</v>
       </c>
     </row>
     <row r="29">
@@ -5943,22 +5828,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.25705484017079</v>
+        <v>-2.699091886256266</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.213215591216704</v>
+        <v>-3.194262392175756</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.049595983332761</v>
+        <v>-4.167733565827985</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002294038634163965</v>
+        <v>0.0002332677344574286</v>
       </c>
       <c r="F29" t="n">
-        <v>9.993132488137879e-25</v>
+        <v>1.455350299221739e-24</v>
       </c>
       <c r="G29" t="n">
-        <v>3.169765837662794e-34</v>
+        <v>1.508529784090981e-35</v>
       </c>
     </row>
     <row r="30">
@@ -5968,272 +5853,247 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05508466072029299</v>
+        <v>0.123556119583205</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08662655138160288</v>
+        <v>0.1070884740121642</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1795525220519242</v>
+        <v>0.1966179633219421</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7579851042946602</v>
+        <v>0.5587117453341595</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1295177346637611</v>
+        <v>0.05710229910302688</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03152730710158291</v>
+        <v>0.01732862670285056</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0002852038322108608</v>
+        <v>0.0003755249839328162</v>
       </c>
       <c r="C31" t="n">
-        <v>9.46669455119785e-05</v>
+        <v>6.030687772370641e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>3.549432879264532e-05</v>
+        <v>0.0001144229937328093</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2812725537812653</v>
+        <v>0.1683810677764804</v>
       </c>
       <c r="F31" t="n">
-        <v>0.197808166176889</v>
+        <v>0.4007599637006207</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7725530120050286</v>
+        <v>0.3385453350187083</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.0740252499290238</v>
+        <v>0.2082038994950567</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1075946368508992</v>
+        <v>0.1017315545789762</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1138486720797172</v>
+        <v>0.1160137560646693</v>
       </c>
       <c r="E32" t="n">
-        <v>0.803455924817746</v>
+        <v>0.3605126841950322</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03383519747384483</v>
+        <v>0.04317526459184765</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2252106509713636</v>
+        <v>0.1976715758157932</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.09354191183377723</v>
+        <v>0.05461978758255927</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.001540780364957352</v>
+        <v>0.007483855195645953</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04068180168779707</v>
+        <v>-0.0674157122744901</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4839624500338556</v>
+        <v>0.6351200870909939</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9623104350329075</v>
+        <v>0.812159897072647</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5115273702535941</v>
+        <v>0.2540382420414871</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-4.191888318642327e-07</v>
+        <v>-4.859431453782212e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.061749350568796e-08</v>
+        <v>-3.365964006828599e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>4.146946959305259e-09</v>
+        <v>-2.629461161571348e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07636681295029264</v>
+        <v>0.04997309628411663</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6151624970732826</v>
+        <v>0.5684604027971903</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9678284977291144</v>
+        <v>0.7910997450504691</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.04656355706440999</v>
+        <v>-0.07128712131982197</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01254869848134907</v>
+        <v>0.003432226499578275</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01594110271331282</v>
+        <v>0.002861016089368837</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04327346123046624</v>
+        <v>0.02385269129478369</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0366054629388094</v>
+        <v>0.3722227311538172</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07499503482441656</v>
+        <v>0.4413211252553226</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1175617146811626</v>
+        <v>3.082349205820384</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0002158563482596109</v>
+        <v>4.485357851267897</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00595163574011027</v>
+        <v>1.543363892353799</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001626707065524452</v>
+        <v>0.8505725377638861</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9623425673047721</v>
+        <v>0.2824821682332017</v>
       </c>
       <c r="G36" t="n">
-        <v>0.143120445689129</v>
+        <v>0.8276117551640337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-16.03694253232637</v>
+        <v>1.963248769705498</v>
       </c>
       <c r="C37" t="n">
-        <v>7.880942343987056</v>
+        <v>-0.1313725962976268</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.510322820679925</v>
+        <v>0.2984924779070256</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3760705992835858</v>
+        <v>0.367434480936197</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06609772800973131</v>
+        <v>0.7799137624255696</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5490491918297452</v>
+        <v>0.7211508406403252</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.536098008796998</v>
+        <v>8.737057746224632</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2791318033742313</v>
+        <v>-0.1841606552502455</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2017447383525384</v>
+        <v>-0.7481883856142381</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2298958130048094</v>
+        <v>0.04660273323357873</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6037928629753169</v>
+        <v>0.8754809870869066</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8326663992431171</v>
+        <v>0.7239160436848235</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.322922474033828</v>
+        <v>-8.55735177400902e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.119490342931</v>
+        <v>0.000493092191208946</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.361366293635236</v>
+        <v>0.0002962986511276974</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1117721734795805</v>
+        <v>0.8782639417360381</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9238968270183174</v>
+        <v>0.01130183794045472</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5496151101311908</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0007241189378883981</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0005275718675601096</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0003562304603730073</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2385273651298233</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0091409208012378</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.2382403054750089</v>
+        <v>0.3153992633949937</v>
       </c>
     </row>
   </sheetData>
@@ -6247,7 +6107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6298,1037 +6158,6 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-10.86160455217333</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.761296529155311</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-14.91160560112049</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9991810077901204</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.002926171969424737</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9833972956823196</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.Daytime Off-Peak]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1383417932739083</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3154648992893024</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.7357628508845483</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8424882334936457</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.06143696829105539</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01572811415159989</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.Evening]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-42.40619913355518</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.8496292040743143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.32687845365412</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9999999527694738</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00153503343837835</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.003836257770288599</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.Lunch]</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.06447151494043571</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.01907641155136088</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2521205132786825</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9411977625323666</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9218721928146862</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3570949949026121</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.Nighttime Off-Peak]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5434363808303806</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4322092829406903</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-23.35057444935162</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6979706641776949</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.530371433129899</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9985546452623661</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.PM Rush]</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5782103209774914</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.07163629605943499</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.8636349487667505</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.4016996815964037</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6911312830031604</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01158606452366401</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Season[T.Winter]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.4033406932277459</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.06901339179883043</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.2513867320392545</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3761015383955469</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5582708618417511</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1673576577917802</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.157248734426291</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.887431146645903</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.246688385390322</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.05896995395822576</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.792553774321885e-20</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.33223278059967e-06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Home↔School]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.4539474032188642</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.447008934880549</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.153381969738424</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7750396931141329</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.907880807162833e-06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.595578975620738e-05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.125672643274394</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6690707425746428</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.514351537121848</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.06123081456671831</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001703232046794042</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.003105160095398337</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Home↔Work]</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.579970006571377</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9553531428733388</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.168060208653904</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.04003010051429665</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.000197550854643301</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.192826320164828e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Other]</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.40216019794932</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.1102168462362943</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9657859011770424</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9997616060061589</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7343817126364187</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1095478465654334</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Occupation[T.Employed_PartTime]</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.169702325858617</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0680356301911717</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.1056077916289081</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.2238292603938863</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7630688567656503</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7833785650001224</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Occupation[T.Home_Partner]</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-76.70481469665155</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7113359013408227</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4802023845604504</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.01983498238489717</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.3913355056942756</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Occupation[T.Other]</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-18.67045778691783</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.373327006397959</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.273555845589826</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9996200533251116</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.005092745549449267</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0009928495985116065</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Occupation[T.Retired]</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.03335457675446856</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2767812655260011</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.005026688724960437</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.977032549324799</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.263785091967816</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.991833303717427</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Occupation[T.Student_3rdLevel]</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3.588861448019014</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2991345042682107</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6300902035054219</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.002809850992723161</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.3811075644583607</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1949629529790021</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Occupation[T.Student_School]</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4.57133906581928</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.08927970651365945</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.22575377825599</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.001966256843211953</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8470553170341437</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0003525250834894808</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Occupation[T.Trainee]</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-22.35462280915894</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1528229200735483</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.376928424227362</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9999696180548902</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.8062797041079782</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.03503684322414661</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Occupation[T.Unemployed]</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.768683549173733</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.901932448786494</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7223146207076991</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.09206044558227564</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.001798987138105125</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1613859567480803</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Education[T.Elementary]</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>13.3717146347099</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.70745812740662</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10.97688252082593</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9989917392015037</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2110457654028263</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9877778337363006</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Education[T.No diploma yet]</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>13.69202508339965</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.546430358821977</v>
-      </c>
-      <c r="D23" t="n">
-        <v>8.579383505637077</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9989675870051773</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.07054295432386745</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9904471755118909</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Education[T.Secondary]</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>14.96573574222249</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.84852043732302</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.5216008662104</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9988715460855048</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1699103325905861</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.987171368135167</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>14.96146310520269</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1.877571343766979</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.63028925263783</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9988718682535147</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.164242174131922</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9870503606313157</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.4784599253640317</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1019424352633043</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.805641225623245</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.3061043047400576</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.4106193051258805</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3.963482034512276e-05</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.04416509168830442</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.004566000285702871</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.009695238524414397</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.1413915082710893</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.5083989182615828</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.3570592908635767</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.000388385068349761</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.001588663783541868</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.91016679389674e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.00239830199484881</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4.94852870516931e-102</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.3816712726480755</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>CarOwnershipHH</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-2.861527095387108</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-3.227062551147623</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-4.147735521942092</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.066116780605749e-05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5.945053628666232e-25</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.201020161081098e-35</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.08217224619899102</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1118062660217171</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1957959691643584</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.6966134243730657</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.04691287939994618</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.01812696556542003</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0003497369216205638</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7.290707794551326e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0001023381858133122</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.2037798290331218</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.2990224666346537</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.3975694350213156</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.1762019586450445</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.1058760158209326</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1114603947861239</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.4670187440516012</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0364377791626744</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.2179303108090251</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.008218121368621616</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.0001232279379413605</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.06574119378254904</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.945618263076439</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.9969003520227977</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2707883149683119</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-4.063265694723206e-07</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-2.683783648573293e-08</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-3.865710641465902e-08</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.1142954025896051</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.6482040981523043</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.702960465603037</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.05459997047481587</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.01248047343960012</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.01258676524959343</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.02988466783251782</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.03801956980382992</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.1620248393594601</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.1086587272554749</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.002020912350075305</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.005633135215487983</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.002766260412762311</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.668675129271185</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.1737998616129712</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.7666783092674062</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5.252551207417794</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.0009622985449870336</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.9658185090120879</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2128344184114656</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.9998943137605077</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3.448872401619295</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.3729568693219258</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.3077247855598541</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.1291195733947599</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.4799810753227668</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.7465799127037515</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>7.376778023313915</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.07021829368746278</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-1.246770163885</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.1016628820123563</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.9523775330195469</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.5717426860175536</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0005878250362864831</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0005950755956252118</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0002289471406938066</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.3596429565299649</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.002660112468077466</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.4506017886022322</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bike</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>walk</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>transit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bike_p</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>walk_p</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>transit_p</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -7703,7 +6532,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -7716,7 +6545,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -7729,7 +6558,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -7742,7 +6571,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -7755,7 +6584,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -7768,7 +6597,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -7781,7 +6610,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -7794,7 +6623,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -7807,7 +6636,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -7817,19 +6646,6 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/ML_Results/mode_MNLR_new/Clermont.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Clermont.xlsx
@@ -7,14 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ11669782" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ12687202" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13897036" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ16197372" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ17270171" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ18470367" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ19701519" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ20903158" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ56629339" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ57480952" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ58554507" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ59607026" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ00799196" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02058456" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ03213380" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04251763" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ05325228" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,24 +485,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-16.79944778235531</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.940349885083577</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-16.69075483971939</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9971315942632665</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.02182424460167228</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9950586593658347</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,24 +498,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.1905574375354696</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2966937828536215</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.7341870501439646</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.767072192801154</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0866690130446862</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0158462649532636</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,24 +511,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-277.0545390205139</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.8802650511452881</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.247622118364008</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.001882567588175307</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00469984849201377</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,24 +524,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.3552392754586888</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04943000415774209</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.1839365007435837</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5854655012894316</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8050562227390643</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5018013773871934</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,24 +537,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.257241245732715</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4323086413593955</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-9.834979711102999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8488039795815825</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5561774010182534</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4350700857235517</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,24 +550,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.2388338264735755</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.04605726538585381</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.9845603988779403</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.7249014460060852</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8046535393623135</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.004496179045109368</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -634,24 +563,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.5461776852178151</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.09679270528370995</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.1735271750598458</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1988081182583995</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4259170864791769</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3370428592556002</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -659,24 +576,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2.480485024935857</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.05614178563275</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.160222533603036</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0310064166430554</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.611217577277414e-21</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.168515647190937e-06</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -684,24 +589,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.3575831628341308</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.771227536821589</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.085155034559333</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7981525943305505</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.209523248346222e-07</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.665597803573038e-05</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -709,24 +602,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.033437730842949</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7329290033407765</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.346369991795805</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.07948632754824328</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0008684784281335348</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.006766297334255683</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -734,24 +615,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.616912541222646</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.046353909801028</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.873271697526724</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.02218469168451774</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6.803068872998504e-05</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.535445723131203e-05</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -759,24 +628,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-18.22100798272113</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03895482861580461</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7850876449332419</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9986128058616072</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.8985903202961427</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1719466779492401</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -784,24 +641,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-0.2661497919713058</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09176498375726971</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.04585977500961892</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8123786438633822</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.6910563924211224</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9086982445754367</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -809,24 +654,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-19.81880750369464</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9049874398435753</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4008778735794227</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9995278348161982</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.003769357158642227</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.4788903702825917</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -834,24 +667,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-22.31494702880211</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.196712717453936</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.0899869880211</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9999149058386249</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.00999067844765094</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.001902047817926967</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -859,24 +680,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.09264544438935017</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1675838928513222</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1441005036651463</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9318772359101968</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.5144612752381006</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7715977328569115</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -884,24 +693,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2.547879102934522</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.03005850078962127</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6643842120040091</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.01323401048838206</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9307389978505608</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1523367914744498</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -909,24 +706,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>3.487231967334364</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.1829970955709093</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.890672455977529</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.007221357544245392</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7055828984660274</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.002140471972984814</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -934,24 +719,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-10.22510244755725</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.861025021694886</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.564065524374584</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.993466390889541</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1885252927005302</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.01280414546721888</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -959,24 +732,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.9332014805350125</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.019597616632037</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6441874114087881</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.4358012106149096</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0007751846630523463</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2124049404401449</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -984,24 +745,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>12.55409847409292</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.80176752999031</v>
-      </c>
-      <c r="D22" t="n">
-        <v>14.05959452372974</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9978564597262595</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2437973162541043</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9958376131545571</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1009,24 +758,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>11.26361145950842</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.790780594339049</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.43027021791526</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9980768025405619</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.07962355325822458</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9966160276537933</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1034,24 +771,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>13.63488318299992</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-2.076676795319019</v>
-      </c>
-      <c r="D24" t="n">
-        <v>14.34264541247443</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9976719223910754</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1745477411983417</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9957538157934744</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1059,24 +784,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>14.25338915488142</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-2.121267204279265</v>
-      </c>
-      <c r="D25" t="n">
-        <v>14.45293550873227</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9975663163893577</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.166284193691931</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.99572116438668</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1084,24 +797,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.5199452965008625</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.07490678071082198</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6056947277673231</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.2477353632790775</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.551960936999073</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.001600878822417871</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1109,24 +810,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.01984711451751101</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0070157358486103</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.01331784579699376</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.4512561963441978</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.3197610994271838</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.2093311866556892</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1134,24 +823,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-0.0003995811217698345</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.001758367005122417</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.020266264130462e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.001128729776672003</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9.871665119854194e-105</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.6456304031391213</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1159,24 +836,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-2.889679967734128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-3.252723697491579</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-4.176341767099545</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.351653554154635e-05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.823141709815027e-26</v>
-      </c>
-      <c r="G29" t="n">
-        <v>5.662190044493145e-37</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1184,24 +849,12 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.283605325181215</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1096185267561057</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.2375056148727667</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.1502997293921573</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.06278439096046659</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.004375164979325149</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1209,24 +862,12 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0.0001721057400574028</v>
-      </c>
-      <c r="C31" t="n">
-        <v>6.388842249580007e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0001514995188219308</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5032947560591311</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.3871138160276179</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2070794461379061</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1234,24 +875,12 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.158394262652123</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.1163983990445521</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1162597855947061</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.4814846398096125</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.02540008414883245</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.2029629936359574</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1259,24 +888,12 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0.03683297052338707</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.01080983102512127</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.07321131720679515</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.7499015794629847</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7421576238339739</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2199603192090165</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1284,149 +901,90 @@
           <t>UrbBuildDensity_res</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>-3.683434229450692e-07</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-8.383474602462658e-09</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-3.833985724977766e-08</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.1027845066415479</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.8905966314849582</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.6975364190299858</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.03364275310826958</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.005302942851825301</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.002877688962549973</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.1934407179853768</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.1853051272754155</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.4220352917999475</v>
-      </c>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-4.495175722520507</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4.015807815216099</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-1.056095443240083</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.7736146410257283</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.3570488664253256</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.8847200863585645</v>
-      </c>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2.415680672062697</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.09916201143512109</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1406977091501202</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2692634509669825</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.8367618899824908</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.8688539422627829</v>
-      </c>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>8.592128357983956</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.9547444079724599</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5157547160900768</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.04086244953307765</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.4354149436614152</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.8151225455202527</v>
-      </c>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0.0003950156247016664</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0005451837219194468</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.0002245824927034563</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.4570595957551863</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.006709710360905848</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.4499285069042597</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1439,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1491,22 +1049,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-116.0099631773602</v>
+        <v>-25.46500141172768</v>
       </c>
       <c r="C2" t="n">
-        <v>3.538776832410311</v>
+        <v>3.728190140310284</v>
       </c>
       <c r="D2" t="n">
-        <v>-18.21758208206635</v>
+        <v>-19.16051137996969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999966965429625</v>
+        <v>0.9998312695763831</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03143343560469927</v>
+        <v>0.02758841034750957</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9968716525000015</v>
+        <v>0.9974416262050162</v>
       </c>
     </row>
     <row r="3">
@@ -1516,22 +1074,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03380433768373326</v>
+        <v>-0.1846530013812088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3614861481281726</v>
+        <v>0.3658593678764595</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.83197642697397</v>
+        <v>-0.7733892185930872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9619244859972393</v>
+        <v>0.6810589346809977</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03537563340362166</v>
+        <v>0.03258572283306831</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007838767173048209</v>
+        <v>0.01270601922044045</v>
       </c>
     </row>
     <row r="4">
@@ -1541,22 +1099,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-52.67326920190129</v>
+        <v>-68.12917326472991</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7143561652078628</v>
+        <v>-0.6451149331901443</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9422245289181589</v>
+        <v>-0.9128682524123526</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999996866932</v>
+        <v>0.9999999999997093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009422373812681521</v>
+        <v>0.01788000997284614</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03255369070896329</v>
+        <v>0.03771121041619087</v>
       </c>
     </row>
     <row r="5">
@@ -1566,22 +1124,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8072076369895389</v>
+        <v>0.2809317670396168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04957181125101753</v>
+        <v>0.02163721279655446</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2014409166497073</v>
+        <v>-0.2101272425215012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215819440976302</v>
+        <v>0.5141265703345196</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8044838409616504</v>
+        <v>0.9135431702522251</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4642731284184601</v>
+        <v>0.4481004506526859</v>
       </c>
     </row>
     <row r="6">
@@ -1591,22 +1149,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7145397052275193</v>
+        <v>-0.9196264518134045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07831738281091541</v>
+        <v>-0.02936918339346709</v>
       </c>
       <c r="D6" t="n">
-        <v>-21.48335537838558</v>
+        <v>-20.69364918520883</v>
       </c>
       <c r="E6" t="n">
-        <v>0.588974933732948</v>
+        <v>0.4292622517607959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9049150723588745</v>
+        <v>0.963891037933737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.996410394690333</v>
+        <v>0.9969010742951218</v>
       </c>
     </row>
     <row r="7">
@@ -1616,22 +1174,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5988242155044775</v>
+        <v>0.3939484313309137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001078579361223636</v>
+        <v>-0.01442853057744358</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7892739128673786</v>
+        <v>-0.7315142318222984</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3733117746564576</v>
+        <v>0.3469163029527993</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9952669001615246</v>
+        <v>0.9365974833110092</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02097700050009634</v>
+        <v>0.03126529269875442</v>
       </c>
     </row>
     <row r="8">
@@ -1641,22 +1199,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8982638523354018</v>
+        <v>-0.4063494182200433</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.07028738613360749</v>
+        <v>-0.02813434977842789</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1545238814317864</v>
+        <v>-0.1073290061255921</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04009296683577769</v>
+        <v>0.1503664640990155</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5569168710696973</v>
+        <v>0.81538542227078</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3950813592846699</v>
+        <v>0.5569681693038919</v>
       </c>
     </row>
     <row r="9">
@@ -1666,22 +1224,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.2105245703111</v>
+        <v>0.07739534657917135</v>
       </c>
       <c r="C9" t="n">
-        <v>1.998529362111183</v>
+        <v>1.968871437142012</v>
       </c>
       <c r="D9" t="n">
-        <v>2.604470203960318</v>
+        <v>2.547088943024507</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9982742303503664</v>
+        <v>0.8667900338099769</v>
       </c>
       <c r="F9" t="n">
-        <v>2.400084670001385e-21</v>
+        <v>6.079493680606363e-21</v>
       </c>
       <c r="G9" t="n">
-        <v>6.281529807231528e-06</v>
+        <v>1.060916352084891e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1691,22 +1249,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.48538851220968</v>
+        <v>-0.378286082679189</v>
       </c>
       <c r="C10" t="n">
-        <v>1.388509804440601</v>
+        <v>1.410959928722357</v>
       </c>
       <c r="D10" t="n">
-        <v>2.594733729050573</v>
+        <v>2.565700791706166</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9984145936862371</v>
+        <v>0.5657707537617918</v>
       </c>
       <c r="F10" t="n">
-        <v>3.101003744384497e-05</v>
+        <v>2.201774342918254e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>3.049249598464296e-05</v>
+        <v>4.028952959674744e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1716,22 +1274,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.0071720857502</v>
+        <v>0.1758319391638429</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6676863600103448</v>
+        <v>0.6699464945177298</v>
       </c>
       <c r="D11" t="n">
-        <v>1.976916344666685</v>
+        <v>1.952438298919059</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9982907755605535</v>
+        <v>0.7267252317288375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002040976868195197</v>
+        <v>0.00187991132739465</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001330789096874058</v>
+        <v>0.001479417435231585</v>
       </c>
     </row>
     <row r="12">
@@ -1741,22 +1299,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.4156520539448</v>
+        <v>-0.245750103770572</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9111022341443051</v>
+        <v>0.9034843381431128</v>
       </c>
       <c r="D12" t="n">
-        <v>2.363794529410649</v>
+        <v>2.344386523987293</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9982575403658236</v>
+        <v>0.6086645618655079</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0003058705819159089</v>
+        <v>0.0003260691752599289</v>
       </c>
       <c r="G12" t="n">
-        <v>5.505203063383283e-05</v>
+        <v>6.525567937649982e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1766,22 +1324,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.55830270311541</v>
+        <v>-2.548400666298221</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.139055949229571</v>
+        <v>-0.07977860241412746</v>
       </c>
       <c r="D13" t="n">
-        <v>1.296802117199279</v>
+        <v>1.240893357156827</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998100182970662</v>
+        <v>0.09233553229422725</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6541551856318228</v>
+        <v>0.7961691374283377</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05966312819242049</v>
+        <v>0.07395644314099056</v>
       </c>
     </row>
     <row r="14">
@@ -1791,22 +1349,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5796013598815937</v>
+        <v>0.2076097608899991</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09590496848968513</v>
+        <v>0.07468855888984187</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02389919580084924</v>
+        <v>-0.07904478380506126</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5157857237700021</v>
+        <v>0.6821630213854604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6737210789942827</v>
+        <v>0.7427889049782284</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9515724015663229</v>
+        <v>0.8412942559849046</v>
       </c>
     </row>
     <row r="15">
@@ -1816,22 +1374,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-22.26380235817658</v>
+        <v>-13.0667352968766</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8096139566057945</v>
+        <v>0.7692515882313841</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04430711446328496</v>
+        <v>-0.03148625158735835</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998494016991663</v>
+        <v>0.9755487026421756</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008885094879490444</v>
+        <v>0.01300754718104962</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9438632854343035</v>
+        <v>0.9597540143239749</v>
       </c>
     </row>
     <row r="16">
@@ -1841,22 +1399,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.5955414322035</v>
+        <v>-9.596777291351195</v>
       </c>
       <c r="C16" t="n">
-        <v>1.863671569874044</v>
+        <v>1.842423318472805</v>
       </c>
       <c r="D16" t="n">
-        <v>2.176099138545893</v>
+        <v>2.102344632445654</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996817966155667</v>
+        <v>0.9648756844259473</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0004764598867619686</v>
+        <v>0.0004766381613511297</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003167287453326066</v>
+        <v>0.004273850644172202</v>
       </c>
     </row>
     <row r="17">
@@ -1866,22 +1424,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3357408870035671</v>
+        <v>-0.431964804315321</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2875036306517413</v>
+        <v>0.2499983025137982</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1486032842461033</v>
+        <v>0.08019195289709187</v>
       </c>
       <c r="E17" t="n">
-        <v>0.742015134939082</v>
+        <v>0.5047875761415499</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2497647599862105</v>
+        <v>0.3175770850254631</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7572125263687997</v>
+        <v>0.8670679947356186</v>
       </c>
     </row>
     <row r="18">
@@ -1891,22 +1449,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.688733847452641</v>
+        <v>2.329105482162062</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2502594547840784</v>
+        <v>0.2462241869088576</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6842105408978575</v>
+        <v>0.5995063050184207</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0110935015456629</v>
+        <v>0.000823101447460001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4656089495702306</v>
+        <v>0.4660670508940541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1598493454460147</v>
+        <v>0.2176917925974772</v>
       </c>
     </row>
     <row r="19">
@@ -1916,22 +1474,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.011109299816482</v>
+        <v>2.441353987008065</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1309740814907739</v>
+        <v>0.1784705504824009</v>
       </c>
       <c r="D19" t="n">
-        <v>2.086937177189025</v>
+        <v>2.136694878441046</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03029372380150806</v>
+        <v>0.007843790271138844</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7710693319555064</v>
+        <v>0.6891659272385534</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0008412780624983631</v>
+        <v>0.0007515300586592535</v>
       </c>
     </row>
     <row r="20">
@@ -1941,22 +1499,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.851834397724652</v>
+        <v>-3.436586407607278</v>
       </c>
       <c r="C20" t="n">
-        <v>0.305426560982401</v>
+        <v>0.3137000858206502</v>
       </c>
       <c r="D20" t="n">
-        <v>1.495087372161986</v>
+        <v>1.46519458389151</v>
       </c>
       <c r="E20" t="n">
-        <v>0.963812105375956</v>
+        <v>0.7720680228854853</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6046789736312449</v>
+        <v>0.594586905833085</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01533125534222853</v>
+        <v>0.01778181973879517</v>
       </c>
     </row>
     <row r="21">
@@ -1966,22 +1524,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.668414431235869</v>
+        <v>1.098112771915381</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9764118044768244</v>
+        <v>0.9045770338367172</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3619637675982451</v>
+        <v>0.3712145500471684</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08776594751892142</v>
+        <v>0.07330826785814927</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0008152414296716961</v>
+        <v>0.001839016603872924</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5347024631970397</v>
+        <v>0.5213560357175286</v>
       </c>
     </row>
     <row r="22">
@@ -1991,22 +1549,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.12349836471145</v>
+        <v>20.60000003446619</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.993628923956599</v>
+        <v>-2.044395078037213</v>
       </c>
       <c r="D22" t="n">
-        <v>14.9935568197317</v>
+        <v>15.22782900883937</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999973197742608</v>
+        <v>0.9998635049460425</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1752067826609396</v>
+        <v>0.1684291552526084</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9974252842315766</v>
+        <v>0.9979667294312455</v>
       </c>
     </row>
     <row r="23">
@@ -2016,22 +1574,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.58369122385375</v>
+        <v>20.06674642065117</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.545965937008286</v>
+        <v>-2.645739946953781</v>
       </c>
       <c r="D23" t="n">
-        <v>12.67536141168775</v>
+        <v>12.86926307726012</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999973351456519</v>
+        <v>0.9998670382703141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09228391964105068</v>
+        <v>0.08297261645060973</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9978233671077241</v>
+        <v>0.9982816525007816</v>
       </c>
     </row>
     <row r="24">
@@ -2041,22 +1599,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95.02037104419195</v>
+        <v>21.16287799352212</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.918072416507374</v>
+        <v>-1.928368865527516</v>
       </c>
       <c r="D24" t="n">
-        <v>15.16271795057054</v>
+        <v>15.36126526805474</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999997294235101</v>
+        <v>0.9998597753316467</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1872689611646918</v>
+        <v>0.1889213616643083</v>
       </c>
       <c r="G24" t="n">
-        <v>0.99739623572613</v>
+        <v>0.9979489126112947</v>
       </c>
     </row>
     <row r="25">
@@ -2066,22 +1624,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.66095273391383</v>
+        <v>21.64171228056835</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.995175895045216</v>
+        <v>-2.026692140106613</v>
       </c>
       <c r="D25" t="n">
-        <v>15.20379591338439</v>
+        <v>15.44511300297829</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999997275994306</v>
+        <v>0.9998566025883938</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1711555990301294</v>
+        <v>0.1682707957159373</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9973891817837496</v>
+        <v>0.9979377170071264</v>
       </c>
     </row>
     <row r="26">
@@ -2091,22 +1649,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1485930801379207</v>
+        <v>0.1766966124654116</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08329512432608077</v>
+        <v>0.0990687149795217</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6871025314634936</v>
+        <v>0.7245154899715741</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7319690907003794</v>
+        <v>0.5405345729529918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5020899702119072</v>
+        <v>0.4230014324957286</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003372459733895734</v>
+        <v>0.0001726446755209026</v>
       </c>
     </row>
     <row r="27">
@@ -2116,22 +1674,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0265442086041557</v>
+        <v>0.026217208729862</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007821461668508495</v>
+        <v>0.008278251874772408</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.006917271224678589</v>
+        <v>-0.006774346871536783</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3072450877364122</v>
+        <v>0.1102542841982548</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2563862960008458</v>
+        <v>0.2288240874667017</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5218304636054771</v>
+        <v>0.5288756356643127</v>
       </c>
     </row>
     <row r="28">
@@ -2141,22 +1699,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0003562609245319232</v>
+        <v>7.137158528761454e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00164280142646095</v>
+        <v>-0.001610879843152132</v>
       </c>
       <c r="D28" t="n">
-        <v>2.456010119479264e-05</v>
+        <v>2.922067849022382e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001868237739717309</v>
+        <v>0.02244093250858678</v>
       </c>
       <c r="F28" t="n">
-        <v>4.336258471782798e-102</v>
+        <v>2.251069950286054e-100</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2565594642461834</v>
+        <v>0.17554312469067</v>
       </c>
     </row>
     <row r="29">
@@ -2166,22 +1724,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.564851220266144</v>
+        <v>-2.463412441069971</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.145727194375885</v>
+        <v>-3.061867477838934</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.93035975629567</v>
+        <v>-3.83742815771598</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0007184968962957888</v>
+        <v>1.142828144031713e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>1.967965908735821e-23</v>
+        <v>5.171631021750592e-23</v>
       </c>
       <c r="G29" t="n">
-        <v>4.438651699849323e-32</v>
+        <v>5.126158309091676e-31</v>
       </c>
     </row>
     <row r="30">
@@ -2191,22 +1749,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3006276801972529</v>
+        <v>0.1576186693334383</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1054171972834694</v>
+        <v>0.1088516530904483</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1142563053750649</v>
+        <v>0.0984645221347973</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1064685930917601</v>
+        <v>0.2281349963073181</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06493942651873728</v>
+        <v>0.05523070896940406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1849808286706528</v>
+        <v>0.2560848047663801</v>
       </c>
     </row>
     <row r="31">
@@ -2216,22 +1774,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005672501702399535</v>
+        <v>0.01559347766281901</v>
       </c>
       <c r="C31" t="n">
-        <v>9.891735484821535e-05</v>
+        <v>0.01561986755681651</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001962282409227045</v>
+        <v>0.0008722995623631563</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05137095691238708</v>
+        <v>0.2801128925938238</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1750663940943207</v>
+        <v>0.01428509635814164</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09110409612726755</v>
+        <v>0.933650858696091</v>
       </c>
     </row>
     <row r="32">
@@ -2241,22 +1799,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1672749243725621</v>
+        <v>0.1109153034993277</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1133794580313517</v>
+        <v>0.136275870216146</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1140124934264433</v>
+        <v>0.1508261184760638</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5070494445665878</v>
+        <v>0.3506639560623844</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02854153044499007</v>
+        <v>0.009066156613423552</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2052848712668667</v>
+        <v>0.1040645744018932</v>
       </c>
     </row>
     <row r="33">
@@ -2266,22 +1824,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.02410917098745189</v>
+        <v>0.0263159470492341</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006535932756599094</v>
+        <v>-0.01755497196046506</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07489148095172973</v>
+        <v>-0.03223086752390277</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8579037086794822</v>
+        <v>0.7092895988481908</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8394413310427435</v>
+        <v>0.565499573330222</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2066683106659669</v>
+        <v>0.5819925316221621</v>
       </c>
     </row>
     <row r="34">
@@ -2291,147 +1849,172 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-6.595825679564388e-07</v>
+        <v>-0.2105861138111908</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.828237713708596e-08</v>
+        <v>-0.1017529611191265</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.477732136286573e-08</v>
+        <v>-0.05783619090573915</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01293831869557446</v>
+        <v>0.1513105662211153</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2571248230544896</v>
+        <v>0.0839851712540341</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4379179581644523</v>
+        <v>0.5389812473339083</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.05135334668657644</v>
+        <v>0.01503396405662804</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005713882959803376</v>
+        <v>-0.00435750567901492</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002122182781068364</v>
+        <v>0.01555037412020544</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06025384290251471</v>
+        <v>0.2356181372842486</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1307365898935921</v>
+        <v>0.4512217681370488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5514502042926072</v>
+        <v>0.08260704012582749</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-11.26551280040594</v>
+        <v>-0.0165370169681472</v>
       </c>
       <c r="C36" t="n">
-        <v>6.800552229239513</v>
+        <v>0.002994922512940173</v>
       </c>
       <c r="D36" t="n">
-        <v>4.329853701941399</v>
+        <v>0.002427990843406925</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4893618523697358</v>
+        <v>0.1924179078959356</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1131427867681124</v>
+        <v>0.5138523665959652</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5332769714581442</v>
+        <v>0.5456639126983547</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.089325683517439</v>
+        <v>0.03890582156287137</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.4117245566349155</v>
+        <v>0.07498023422841654</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3856044195214885</v>
+        <v>0.004535916274206762</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6164353561420296</v>
+        <v>0.6831937985302384</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3838316579283302</v>
+        <v>0.08264065872665817</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6462500755511873</v>
+        <v>0.9525846321455974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10.61030474733986</v>
+        <v>0.009005827018491267</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1263473758827936</v>
+        <v>-0.000368473932592957</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6030954693211164</v>
+        <v>-0.003053919526181165</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01209150364267874</v>
+        <v>0.4777098060020473</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9159749792348348</v>
+        <v>0.944650879018835</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7611077510905779</v>
+        <v>0.7473396408640062</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.05025172288224267</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.006093573391530356</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.02634228026603679</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.03357550980869943</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5872321516086348</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2160729050327043</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>4.844898097035505e-05</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0005324458864833276</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.0001128666226263611</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.9272620921589215</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.007866250794252726</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.6929256151262521</v>
+      <c r="B40" t="n">
+        <v>-0.04889805683251702</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.08044352532076547</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.153221483321172</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5415936863932049</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0109290508962321</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.002463178368721104</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2922,7 +2505,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2935,7 +2518,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2948,7 +2531,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2961,7 +2544,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2974,7 +2557,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>transit_accessibility_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2983,6 +2566,19 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2995,7 +2591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3472,7 +3068,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -3485,7 +3081,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3498,7 +3094,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3511,7 +3107,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3524,7 +3120,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>transit_accessibility_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3533,6 +3129,19 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3545,7 +3154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3596,12 +3205,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-11.07231519929395</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.609063224220436</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-21.90780628792362</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9983216314414332</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07889193807992359</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9995320983554123</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3609,12 +3230,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.1745543854036981</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3802597167666248</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.5698960144225333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7726602704367606</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02620309055219575</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06136859667234733</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3622,12 +3255,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-71.38088515028018</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6254314476234019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.057250332733013</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9999999999999586</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02134284457297224</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01795718523352855</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3635,12 +3280,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.5027022266983068</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0593855185152726</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1630945442222551</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.409277199966975</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7654385949313052</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.562395462135685</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3648,12 +3305,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.8716818827307361</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.4284152678047354</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-22.36384778539367</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4928772368474432</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5487678612058904</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9980684624264914</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3661,12 +3330,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.3464837561166908</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.04486361143551442</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.8873238614669037</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5600130537731762</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8050281808750848</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01129150303588578</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3674,12 +3355,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-0.5230789874547183</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.07323238823639877</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2505763622864106</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1846047982581147</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5455803505141598</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1758825941594822</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3687,12 +3380,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2.714591052572512</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.925107604089116</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.956339440431886</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01530759588874586</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.768574898226135e-20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.419778760480985e-06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3700,12 +3405,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0.628710708409</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.474004528705018</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.060854782828966</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6485722554769834</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.802216462188024e-06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.771443864312386e-05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3713,12 +3430,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2.64836720651714</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.656771467899224</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.261981118965607</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01761142653288198</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.002338575005740986</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.009742749194233333</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3726,12 +3455,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>3.08759488482742</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9931163441478726</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.609873737307709</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.007470588012183243</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.00012391524551233</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0003708087235451875</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3739,12 +3480,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-17.54536266679894</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.07047654365701549</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5278861107131854</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9984514391351558</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8223197694021209</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3779118737955921</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3752,12 +3505,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.3700355032129476</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04842358363379286</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.08314685842037559</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6644768180163585</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8365131813968967</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8342675535802309</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3765,12 +3530,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-52.52636323375737</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.939460811996279</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2612852405821207</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9999999998863683</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.002294806818775878</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6415208482919673</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3778,12 +3555,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-22.24670534924594</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.12288833224137</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.96230616686414</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9999084013631824</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02235891638961429</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01009549355663957</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3791,12 +3580,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0.07439283935104846</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2603568137934841</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001096370041015161</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9373663233659658</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3039184012102667</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9981856961524868</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3804,12 +3605,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2.723517408574294</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2586483026004618</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7721693952336353</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.003259170213975064</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4404560526567421</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1044865909886522</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3817,12 +3630,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>3.3632182929678</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.04009411982708713</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.801107169720987</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.006247256175387406</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9290718230576207</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.005042819047984843</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3830,12 +3655,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-18.12815996512613</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1168872767876148</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.252861757131515</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9996209940265219</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8478577969327301</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05383453918790956</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3843,12 +3680,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1.548412139277699</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.196956139561451</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6930985761169796</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09447229780754043</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.818591214094739e-05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2051755471104808</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3856,12 +3705,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>10.35717127804505</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.436970816767537</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18.40682391369846</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9984300341070247</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4432035396759458</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9996068714861271</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3869,12 +3730,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>10.07209166589246</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.327103682413937</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15.71671757602392</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9984732471345249</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2222746779281066</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9996643261260111</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3882,12 +3755,24 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>11.677551139082</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.539410362291125</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.39221585087739</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9982298879023732</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4080634529348042</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9996071834815704</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3895,12 +3780,24 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>12.22604056870763</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.514180779511284</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18.49408963262156</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9981467466635878</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4163678885414773</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9996050076860428</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3908,12 +3805,24 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>-0.3235389524570491</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1575664390337337</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7000239739544197</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4187159693277935</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.206135316161725</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.000400347932859506</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3921,12 +3830,24 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>0.02396506087061791</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005239264642974563</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.004687422366652357</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3169980521457928</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4553944597705077</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6683924208064354</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3934,12 +3855,24 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-0.0003910846263751104</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.001659963840819882</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.004987974785499e-05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.000460265275695319</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.770502056454839e-102</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1679152787123066</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3947,12 +3880,24 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>-2.352296153581139</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.092982701720457</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.917285429816051</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0006510203988173419</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.523194289335115e-24</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.873781943018919e-32</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3960,12 +3905,24 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>0.1805782855287355</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1232347932585771</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2103822691345156</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2872512878871339</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02985075686116465</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01197325034439645</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3973,12 +3930,24 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>0.04636781035760178</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01381635168519182</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.004218743036538785</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.04118586060727127</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02881871018125181</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.694746451610849</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3986,12 +3955,24 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0.1016512795598885</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0914187637074714</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1017807969495184</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6656945767766984</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.07700965793950139</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2708962277568262</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3999,12 +3980,24 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>0.004497112019408348</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.0100482520290521</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.008621109950137401</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9671629614648311</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7417973391161417</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8848934721787945</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4012,77 +4005,174 @@
           <t>UrbBuildDensity_res</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>-0.5016851816129311</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.06696308064732026</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.0468596461633489</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.02443861123814314</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2511425639988097</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6298466018682203</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.02023986114941767</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.004801556715414083</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01747014948101513</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2851120018235104</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.4117129388632939</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.05342326276631834</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.07461812930553757</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.001392535830997453</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.002930603806421398</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01344525995005861</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7722482490364582</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.4870824066932217</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.0738612050817488</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.08350040812004733</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.02690750180812757</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6115872067422217</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.05559198291344887</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.729055242828532</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01152120308897903</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001211974793731847</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.0009050344207451799</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5674995163986961</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8202428188206904</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9258072319266643</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.09395003365708536</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.007744275262482522</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.03545753387267221</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.007764223251571611</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4897384713382261</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1085402895433754</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>0.003505945820966854</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05551079737172475</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1794255122747956</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9753857943116924</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.07328898797725895</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0004930204372446173</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4095,7 +4185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4147,22 +4237,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.042293659798794</v>
+        <v>-14.64835945109051</v>
       </c>
       <c r="C2" t="n">
-        <v>4.567846294476512</v>
+        <v>4.918836102906286</v>
       </c>
       <c r="D2" t="n">
-        <v>-18.44635175363724</v>
+        <v>-15.1820658129287</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9876895833415433</v>
+        <v>0.9995789554579327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01730909457188224</v>
+        <v>0.009187768579111657</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9978707358129225</v>
+        <v>0.9907609495564422</v>
       </c>
     </row>
     <row r="3">
@@ -4172,22 +4262,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4280801075848193</v>
+        <v>-0.1626704312523044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2732571718106859</v>
+        <v>0.3702358975799147</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6006094317233323</v>
+        <v>-0.669711301847837</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5026544959741025</v>
+        <v>0.7950217985344556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1049497110494275</v>
+        <v>0.03136974507943011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04687040812899493</v>
+        <v>0.02798786555496053</v>
       </c>
     </row>
     <row r="4">
@@ -4197,22 +4287,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-31.54990376912126</v>
+        <v>-18.24848402308679</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8150952493865659</v>
+        <v>-0.7808099495919167</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.169497410449834</v>
+        <v>-1.128916822544517</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999991231420735</v>
+        <v>0.9964618308513339</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002606124595149311</v>
+        <v>0.006142166801478048</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008460713447061128</v>
+        <v>0.01348498371338585</v>
       </c>
     </row>
     <row r="5">
@@ -4222,22 +4312,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7226825667258379</v>
+        <v>0.5668227782139155</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.005776377056281019</v>
+        <v>0.0645514425966727</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2345057583741325</v>
+        <v>-0.2823807311885755</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2598791065576824</v>
+        <v>0.3516261971119445</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9766969995752032</v>
+        <v>0.7470624789135014</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3962738917171941</v>
+        <v>0.3160863736360087</v>
       </c>
     </row>
     <row r="6">
@@ -4247,22 +4337,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6699253232620672</v>
+        <v>0.3947353253142243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08883477842678252</v>
+        <v>-0.06488324806964192</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.42633897698108</v>
+        <v>-20.26962083840703</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6051522707062125</v>
+        <v>0.7635883036555704</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8916216535530388</v>
+        <v>0.9246402361542194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9953527676077533</v>
+        <v>0.9947235299242555</v>
       </c>
     </row>
     <row r="7">
@@ -4272,22 +4362,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.688830554325439</v>
+        <v>0.2032884412594063</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06624603171238772</v>
+        <v>-0.01486847827970532</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6969267794342455</v>
+        <v>-0.750781777354036</v>
       </c>
       <c r="E7" t="n">
-        <v>0.272911794739272</v>
+        <v>0.7458856107111089</v>
       </c>
       <c r="F7" t="n">
-        <v>0.712816572505547</v>
+        <v>0.9357148544727992</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03700051070563562</v>
+        <v>0.02556309295099585</v>
       </c>
     </row>
     <row r="8">
@@ -4297,22 +4387,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.627108020559339</v>
+        <v>-0.2390108058452341</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1264005347568134</v>
+        <v>-0.05765767698080577</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2160213738922992</v>
+        <v>-0.1096498134853003</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1257698284672948</v>
+        <v>0.5568136339672098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2886484691943179</v>
+        <v>0.6382455922695469</v>
       </c>
       <c r="G8" t="n">
-        <v>0.231035449404827</v>
+        <v>0.5493606853414453</v>
       </c>
     </row>
     <row r="9">
@@ -4322,22 +4412,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.705930275743873</v>
+        <v>2.497493666714121</v>
       </c>
       <c r="C9" t="n">
-        <v>1.911203204645665</v>
+        <v>2.016763651333236</v>
       </c>
       <c r="D9" t="n">
-        <v>2.051430823060549</v>
+        <v>1.909165925049903</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01462352640228919</v>
+        <v>0.0291750667126672</v>
       </c>
       <c r="F9" t="n">
-        <v>3.255961322082882e-20</v>
+        <v>1.922728087487738e-21</v>
       </c>
       <c r="G9" t="n">
-        <v>6.622172893762515e-06</v>
+        <v>1.646928917237068e-05</v>
       </c>
     </row>
     <row r="10">
@@ -4347,22 +4437,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1492561790541658</v>
+        <v>0.6350573973388179</v>
       </c>
       <c r="C10" t="n">
-        <v>1.446520877733486</v>
+        <v>1.466999257071218</v>
       </c>
       <c r="D10" t="n">
-        <v>2.053272831839272</v>
+        <v>1.98738715166052</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9232560467374122</v>
+        <v>0.6508861514412754</v>
       </c>
       <c r="F10" t="n">
-        <v>8.502092716369585e-06</v>
+        <v>1.176667029943129e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>5.957666733292577e-05</v>
+        <v>7.127964958014897e-05</v>
       </c>
     </row>
     <row r="11">
@@ -4372,22 +4462,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.346882854821775</v>
+        <v>2.489827490472835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7028440251487915</v>
+        <v>0.560333344360764</v>
       </c>
       <c r="D11" t="n">
-        <v>1.274939808287811</v>
+        <v>1.242242503796579</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03683370981047267</v>
+        <v>0.02646567054665663</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001047584337965411</v>
+        <v>0.009743493425044885</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01231542267243064</v>
+        <v>0.01043382061774843</v>
       </c>
     </row>
     <row r="12">
@@ -4397,22 +4487,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.944015670559301</v>
+        <v>2.678794811668987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8830025437564957</v>
+        <v>0.9815241450016087</v>
       </c>
       <c r="D12" t="n">
-        <v>1.937579574074302</v>
+        <v>1.770195295158277</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01084604273103851</v>
+        <v>0.02276173925197285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0004848790949882178</v>
+        <v>0.0001272649300393954</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1394274984195e-05</v>
+        <v>9.829893623816677e-05</v>
       </c>
     </row>
     <row r="13">
@@ -4422,22 +4512,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17.9293962411792</v>
+        <v>-40.33600245962745</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05316867873195558</v>
+        <v>-0.0628613416395777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8068088555584233</v>
+        <v>0.501396781959444</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9986499656196877</v>
+        <v>0.9999999550198968</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8643988395071533</v>
+        <v>0.8388736382367458</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1664771193485177</v>
+        <v>0.4085424879133825</v>
       </c>
     </row>
     <row r="14">
@@ -4447,22 +4537,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2671542718711165</v>
+        <v>-0.4310098866795172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0862547341246732</v>
+        <v>-0.09864654722099581</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1627504005502781</v>
+        <v>-0.0844815803975964</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7535755578381088</v>
+        <v>0.6999363194392889</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7082466489802588</v>
+        <v>0.67760266678598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6969916291604288</v>
+        <v>0.8368456540135272</v>
       </c>
     </row>
     <row r="15">
@@ -4472,22 +4562,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-17.83259506649047</v>
+        <v>-15.34257027766007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8492070319740983</v>
+        <v>0.7754750290482421</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5079903195908025</v>
+        <v>0.6502706055766594</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9986937680082578</v>
+        <v>0.9964922464940842</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006086594108794211</v>
+        <v>0.01361030730463797</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3801959981277679</v>
+        <v>0.2564624760197448</v>
       </c>
     </row>
     <row r="16">
@@ -4497,22 +4587,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-24.44134366764822</v>
+        <v>-16.43147831073725</v>
       </c>
       <c r="C16" t="n">
-        <v>1.375123800298491</v>
+        <v>1.316621746677941</v>
       </c>
       <c r="D16" t="n">
-        <v>2.252525285542208</v>
+        <v>2.183756826651419</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999673703024662</v>
+        <v>0.9989068765204508</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003495158487646502</v>
+        <v>0.01026562656617127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0007862476544485548</v>
+        <v>0.00305567969296344</v>
       </c>
     </row>
     <row r="17">
@@ -4522,22 +4612,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03551540420029707</v>
+        <v>0.094519382248222</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2964263586232666</v>
+        <v>0.3131379837941455</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02832669890034423</v>
+        <v>0.2814951418520308</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9703808869277204</v>
+        <v>0.9210096290659979</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2317929893201124</v>
+        <v>0.2190942194622485</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9541493902574871</v>
+        <v>0.5677152165625822</v>
       </c>
     </row>
     <row r="18">
@@ -4547,22 +4637,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.511306633237052</v>
+        <v>2.534865577066054</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3522828092406679</v>
+        <v>0.2681319530566235</v>
       </c>
       <c r="D18" t="n">
-        <v>1.138752686270928</v>
+        <v>0.9236775121265456</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007337699776054716</v>
+        <v>0.009474192180665798</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2934725516393902</v>
+        <v>0.4308992241868377</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01507189564564277</v>
+        <v>0.0507587322264481</v>
       </c>
     </row>
     <row r="19">
@@ -4572,22 +4662,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.47699826570545</v>
+        <v>3.684675364949059</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06413966123371805</v>
+        <v>0.3247042401205444</v>
       </c>
       <c r="D19" t="n">
-        <v>2.444036537209092</v>
+        <v>1.947121214085569</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08168000010981104</v>
+        <v>0.003799202678144726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8889989125010663</v>
+        <v>0.4749233690833244</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000108268051510186</v>
+        <v>0.002173158501675963</v>
       </c>
     </row>
     <row r="20">
@@ -4597,22 +4687,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-10.66939502974859</v>
+        <v>-34.79482028654476</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1278562808159845</v>
+        <v>-0.02761736082912772</v>
       </c>
       <c r="D20" t="n">
-        <v>1.673377130078688</v>
+        <v>1.479496694953929</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9925470743512328</v>
+        <v>0.9999998388898299</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8354705011342475</v>
+        <v>0.9650167668734018</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007309298865945358</v>
+        <v>0.01927680889540785</v>
       </c>
     </row>
     <row r="21">
@@ -4622,22 +4712,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.398971776169663</v>
+        <v>1.354042349265943</v>
       </c>
       <c r="C21" t="n">
-        <v>1.040471289362054</v>
+        <v>1.190356275505674</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7207613835088302</v>
+        <v>1.013451648133162</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1292045964315752</v>
+        <v>0.1497804241604413</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000309077681550987</v>
+        <v>8.9159327543361e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1605124321340222</v>
+        <v>0.05229835139852176</v>
       </c>
     </row>
     <row r="22">
@@ -4647,22 +4737,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.165600075937727</v>
+        <v>15.58666819615626</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.554345909545118</v>
+        <v>-2.209699599077842</v>
       </c>
       <c r="D22" t="n">
-        <v>15.2446998996378</v>
+        <v>12.44128651123516</v>
       </c>
       <c r="E22" t="n">
-        <v>0.989031263192534</v>
+        <v>0.9995519852161765</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1564681727547637</v>
+        <v>0.1912716104052655</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9982403021238921</v>
+        <v>0.9924287940815982</v>
       </c>
     </row>
     <row r="23">
@@ -4672,22 +4762,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.232183635930909</v>
+        <v>14.94817678424668</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.286100668018832</v>
+        <v>-2.933025388882511</v>
       </c>
       <c r="D23" t="n">
-        <v>12.91191933473463</v>
+        <v>9.984307312153389</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9873987159076303</v>
+        <v>0.999570337667245</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07315744333437071</v>
+        <v>0.0901612902326029</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9985095749766459</v>
+        <v>0.9939239686236033</v>
       </c>
     </row>
     <row r="24">
@@ -4697,22 +4787,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.802384752375119</v>
+        <v>17.21419560742332</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.557181890762671</v>
+        <v>-1.93801990778339</v>
       </c>
       <c r="D24" t="n">
-        <v>15.80943230953141</v>
+        <v>12.34837231598935</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9865259295175219</v>
+        <v>0.9995052044514916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1528708206413413</v>
+        <v>0.2476029943650261</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9981751150901439</v>
+        <v>0.9924853354713866</v>
       </c>
     </row>
     <row r="25">
@@ -4722,22 +4812,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.315490356295841</v>
+        <v>17.88073710892394</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.629515331342321</v>
+        <v>-2.135204015496733</v>
       </c>
       <c r="D25" t="n">
-        <v>16.08689377149156</v>
+        <v>12.62425942515778</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9857405868285448</v>
+        <v>0.9994860457449181</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1421812660212928</v>
+        <v>0.2033377477181019</v>
       </c>
       <c r="G25" t="n">
-        <v>0.998143087733517</v>
+        <v>0.992317448106307</v>
       </c>
     </row>
     <row r="26">
@@ -4747,22 +4837,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2769686392392187</v>
+        <v>-0.5110101384096348</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04488323187813274</v>
+        <v>-0.01720782710324043</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4891425734083499</v>
+        <v>0.5525158132448558</v>
       </c>
       <c r="E26" t="n">
-        <v>0.505601050577857</v>
+        <v>0.2196167906738643</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7167926459268695</v>
+        <v>0.8904926608675128</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01030865464394921</v>
+        <v>0.004307851359808965</v>
       </c>
     </row>
     <row r="27">
@@ -4772,22 +4862,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01571395735945968</v>
+        <v>0.02287379893338857</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005918303278350324</v>
+        <v>0.005878557434248997</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.004996617405688145</v>
+        <v>-0.01220955274204359</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5120009943839556</v>
+        <v>0.3376716197636628</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3929837550612594</v>
+        <v>0.4060164729569689</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6458225271904705</v>
+        <v>0.2553790356324046</v>
       </c>
     </row>
     <row r="28">
@@ -4797,22 +4887,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0003322215886648258</v>
+        <v>-0.0004017366338081999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.001614210919346806</v>
+        <v>-0.001718269005771956</v>
       </c>
       <c r="D28" t="n">
-        <v>9.12373076483495e-06</v>
+        <v>2.197565146067959e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002691408913440775</v>
+        <v>0.0005361674981239846</v>
       </c>
       <c r="F28" t="n">
-        <v>9.950772896447027e-103</v>
+        <v>1.233935901071651e-103</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6825190365258798</v>
+        <v>0.3193412496065973</v>
       </c>
     </row>
     <row r="29">
@@ -4822,22 +4912,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.219484499462457</v>
+        <v>-2.613381456319047</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.178871174415979</v>
+        <v>-3.033121285244232</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.081130225816909</v>
+        <v>-3.84453793310868</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003285809484784582</v>
+        <v>0.0001258076125180471</v>
       </c>
       <c r="F29" t="n">
-        <v>1.719406202893429e-24</v>
+        <v>1.600525086157788e-23</v>
       </c>
       <c r="G29" t="n">
-        <v>6.251674816955125e-35</v>
+        <v>4.790812105330705e-33</v>
       </c>
     </row>
     <row r="30">
@@ -4847,22 +4937,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.09636387882392086</v>
+        <v>0.1396087393228135</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08119326188657504</v>
+        <v>0.09836742549126999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1798969628952803</v>
+        <v>0.1400656917286611</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5914756485653897</v>
+        <v>0.4406330148526859</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1559453266158935</v>
+        <v>0.08785500425376822</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03062837354195573</v>
+        <v>0.1021024620273377</v>
       </c>
     </row>
     <row r="31">
@@ -4872,22 +4962,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0002611740436814824</v>
+        <v>0.0463842029342393</v>
       </c>
       <c r="C31" t="n">
-        <v>7.944791958649422e-05</v>
+        <v>0.01749867975824872</v>
       </c>
       <c r="D31" t="n">
-        <v>5.933326332806266e-05</v>
+        <v>0.004032970689973255</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3356925015481683</v>
+        <v>0.05585126084399197</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2876750737549457</v>
+        <v>0.00693628182796487</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6246279166536577</v>
+        <v>0.6995913775028071</v>
       </c>
     </row>
     <row r="32">
@@ -4897,22 +4987,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02925476776088131</v>
+        <v>0.1352878699984554</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1026324027604622</v>
+        <v>0.1085441334281497</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124599502124927</v>
+        <v>0.1418082752658037</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9138601070973075</v>
+        <v>0.5714780169843655</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04162686078584456</v>
+        <v>0.03605796781914355</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1829617392715274</v>
+        <v>0.1244698930812481</v>
       </c>
     </row>
     <row r="33">
@@ -4922,22 +5012,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.01779451233765966</v>
+        <v>0.004120356612632423</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006646651194405242</v>
+        <v>-0.03449072318238371</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04810376940074503</v>
+        <v>-0.04018487580640957</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8840217809888528</v>
+        <v>0.971421437269786</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8371321065812549</v>
+        <v>0.2670991624555404</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4337061476477739</v>
+        <v>0.4936399349230435</v>
       </c>
     </row>
     <row r="34">
@@ -4947,147 +5037,172 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-4.446855132258902e-07</v>
+        <v>-0.4855734554272186</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.571334499011877e-08</v>
+        <v>-0.07551763328495444</v>
       </c>
       <c r="D34" t="n">
-        <v>1.164193555997109e-08</v>
+        <v>-0.08835203027547366</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06318729041854733</v>
+        <v>0.0398728659399098</v>
       </c>
       <c r="F34" t="n">
-        <v>0.557756212150433</v>
+        <v>0.2049046603750188</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9079271664129233</v>
+        <v>0.351784508731211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.07747917141524759</v>
+        <v>-0.02553019864403502</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00492167422653567</v>
+        <v>-0.005587795657470457</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002549581653455874</v>
+        <v>0.0187608156094477</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009624831342371827</v>
+        <v>0.199936426462115</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1899754140519007</v>
+        <v>0.3447357820731337</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4836834874122825</v>
+        <v>0.03480319347533054</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-16.17775135842051</v>
+        <v>-0.0862491740253158</v>
       </c>
       <c r="C36" t="n">
-        <v>7.036080229046016</v>
+        <v>-0.0009096347160589687</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.795142500652965</v>
+        <v>0.001799579237213666</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3487956613458699</v>
+        <v>0.008793158492749722</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09668076438542096</v>
+        <v>0.849486296021127</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7035310034146531</v>
+        <v>0.662223238940745</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.303238204799357</v>
+        <v>-0.05654583885287161</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2471486807625171</v>
+        <v>0.05782216008861271</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5020511038224947</v>
+        <v>-0.01815560210111748</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5124435865377197</v>
+        <v>0.7154611822719128</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6093642737929289</v>
+        <v>0.1861875780555317</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5533699422865996</v>
+        <v>0.8127649984912722</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.174502916947534</v>
+        <v>0.01323307950463501</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.4589249278502981</v>
+        <v>-0.003165634859254873</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.6101276486620358</v>
+        <v>-0.008455353823421384</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1306846194342531</v>
+        <v>0.5286075670960286</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7119866797386258</v>
+        <v>0.5557336706487649</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7784458493505937</v>
+        <v>0.3776098741652405</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.08579109256307864</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005098466389911417</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.02199423617238386</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01973616031972768</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6507118663941689</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2944710091341906</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0.0003457894001179315</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0004367461673882797</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.0004367614180307206</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5656023832794276</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.02890661626062544</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.1382841525583144</v>
+      <c r="B40" t="n">
+        <v>0.01756176857503045</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.04729600189584159</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1407496585614697</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8840792672585607</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1333463444758202</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.004965252445734282</v>
       </c>
     </row>
   </sheetData>
@@ -5101,7 +5216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5153,22 +5268,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.75777006484893</v>
+        <v>-11.88824599012375</v>
       </c>
       <c r="C2" t="n">
-        <v>3.927090417685072</v>
+        <v>5.095263878574596</v>
       </c>
       <c r="D2" t="n">
-        <v>-22.38594936960777</v>
+        <v>-15.73237083598623</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9987441765533239</v>
+        <v>0.9997997818212645</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01009654993537424</v>
+        <v>0.009189129951815594</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9995579773842984</v>
+        <v>0.9896920979159821</v>
       </c>
     </row>
     <row r="3">
@@ -5178,22 +5293,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1459069497362758</v>
+        <v>0.4988526852840518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3233543728231111</v>
+        <v>0.2746912654790588</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7271779028902364</v>
+        <v>-0.5715899977321579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8333437928151527</v>
+        <v>0.4361003457898583</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05480943390782958</v>
+        <v>0.103443790071196</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01685926470898007</v>
+        <v>0.05829577434588928</v>
       </c>
     </row>
     <row r="4">
@@ -5203,22 +5318,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.95744433388443</v>
+        <v>-35.01627065198067</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8410603994457282</v>
+        <v>-0.7968859539073211</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.29954505499837</v>
+        <v>-1.154096062425062</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999995632246698</v>
+        <v>0.9999984052881475</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00168891799004401</v>
+        <v>0.003184009228679289</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004223986338254711</v>
+        <v>0.009526655825093731</v>
       </c>
     </row>
     <row r="5">
@@ -5228,22 +5343,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1002473764294895</v>
+        <v>0.7140043391737074</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00183717820416166</v>
+        <v>-0.02279926878781606</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2740326990272174</v>
+        <v>-0.2460595036943982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.90857956679165</v>
+        <v>0.2683340242750129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9924534814289815</v>
+        <v>0.908409802969963</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3160848151740246</v>
+        <v>0.3786089342816933</v>
       </c>
     </row>
     <row r="6">
@@ -5253,22 +5368,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.553473405018207</v>
+        <v>0.7403325100040802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.405729115945167</v>
+        <v>0.09033663202863082</v>
       </c>
       <c r="D6" t="n">
-        <v>-26.97501884567497</v>
+        <v>-8.165097201647065</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6863749042640978</v>
+        <v>0.5722780893658312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5561281207980355</v>
+        <v>0.8894945983261809</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9997113024669618</v>
+        <v>0.7753489083584033</v>
       </c>
     </row>
     <row r="7">
@@ -5278,22 +5393,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6212108039653654</v>
+        <v>0.7063062916218735</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05340985280886571</v>
+        <v>-0.08247659347086185</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8885215132627807</v>
+        <v>-0.6443977497774591</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3645396349142633</v>
+        <v>0.2634032896281086</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7662268109957578</v>
+        <v>0.6476605055412482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009048260392462251</v>
+        <v>0.05469892866358551</v>
       </c>
     </row>
     <row r="8">
@@ -5303,22 +5418,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4855058137722925</v>
+        <v>-0.5338790428421523</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.07254703732778185</v>
+        <v>-0.1087933455465681</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2317585398604279</v>
+        <v>-0.1632353253813318</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2798251361217235</v>
+        <v>0.1960853830594926</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5378253060962839</v>
+        <v>0.3655496628528698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2013831284729367</v>
+        <v>0.3699447726704976</v>
       </c>
     </row>
     <row r="9">
@@ -5328,22 +5443,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.213388121611421</v>
+        <v>2.687529003747561</v>
       </c>
       <c r="C9" t="n">
-        <v>1.865073753679467</v>
+        <v>1.929955820073011</v>
       </c>
       <c r="D9" t="n">
-        <v>2.201845049784594</v>
+        <v>2.057968592602754</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05110161213839405</v>
+        <v>0.01621688904394496</v>
       </c>
       <c r="F9" t="n">
-        <v>7.727970689522016e-20</v>
+        <v>1.972076065005563e-20</v>
       </c>
       <c r="G9" t="n">
-        <v>1.753829789708604e-06</v>
+        <v>7.603711812406887e-06</v>
       </c>
     </row>
     <row r="10">
@@ -5353,22 +5468,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4215792111126531</v>
+        <v>-0.2991639580462603</v>
       </c>
       <c r="C10" t="n">
-        <v>1.394101574572185</v>
+        <v>1.502918724114105</v>
       </c>
       <c r="D10" t="n">
-        <v>2.112759261586553</v>
+        <v>2.085033272413312</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7890523692611739</v>
+        <v>0.8477299148749107</v>
       </c>
       <c r="F10" t="n">
-        <v>1.592314104006744e-05</v>
+        <v>4.25695653182361e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>5.698431555127548e-05</v>
+        <v>5.716277842822272e-05</v>
       </c>
     </row>
     <row r="11">
@@ -5378,22 +5493,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.118632200961098</v>
+        <v>2.309888749671885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6546840721940785</v>
+        <v>0.7326246763254936</v>
       </c>
       <c r="D11" t="n">
-        <v>1.476997402256973</v>
+        <v>1.310020645197308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06080587025484035</v>
+        <v>0.04120191000448677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002058827593797578</v>
+        <v>0.0006654021489138189</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003672880591194143</v>
+        <v>0.01059411808229243</v>
       </c>
     </row>
     <row r="12">
@@ -5403,22 +5518,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.531172057076714</v>
+        <v>2.867551272188702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9257010959088369</v>
+        <v>0.9240786390364107</v>
       </c>
       <c r="D12" t="n">
-        <v>2.110252108574149</v>
+        <v>2.003937546567694</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04209046728307083</v>
+        <v>0.01378897876121543</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0002996905188886445</v>
+        <v>0.0002658924158808549</v>
       </c>
       <c r="G12" t="n">
-        <v>6.391382560538687e-06</v>
+        <v>1.940569701285463e-05</v>
       </c>
     </row>
     <row r="13">
@@ -5428,22 +5543,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17.42071165227826</v>
+        <v>-17.16039904913561</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1388464838977834</v>
+        <v>-0.006090086207576059</v>
       </c>
       <c r="D13" t="n">
-        <v>0.919979697434186</v>
+        <v>0.7823441355966989</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9979016849294871</v>
+        <v>0.9980173240603196</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6678767759305855</v>
+        <v>0.9844085259417921</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1253300347554208</v>
+        <v>0.1874159820895133</v>
       </c>
     </row>
     <row r="14">
@@ -5453,22 +5568,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.057709513584878</v>
+        <v>0.357923366033209</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07584952677393775</v>
+        <v>0.07009020468455099</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06257741127821168</v>
+        <v>-0.2564213701597858</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2656324222752231</v>
+        <v>0.676753438669855</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7360732550107253</v>
+        <v>0.7614198321538741</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8697669163893366</v>
+        <v>0.5414884338999479</v>
       </c>
     </row>
     <row r="15">
@@ -5478,22 +5593,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-22.03587128459717</v>
+        <v>-28.28544994781172</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7064014410518049</v>
+        <v>0.8478191001213496</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5185850676927757</v>
+        <v>0.4536993631970389</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998239055715081</v>
+        <v>0.9999887587206081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02019871828695462</v>
+        <v>0.006388693570834339</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3514992593922026</v>
+        <v>0.4308484359210314</v>
       </c>
     </row>
     <row r="16">
@@ -5503,22 +5618,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.79910309262526</v>
+        <v>-13.69455553610557</v>
       </c>
       <c r="C16" t="n">
-        <v>1.416179452578773</v>
+        <v>1.378336613732513</v>
       </c>
       <c r="D16" t="n">
-        <v>2.305108213773697</v>
+        <v>2.254518969751119</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9954767873889172</v>
+        <v>0.9959862643241604</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00390952362159651</v>
+        <v>0.003313166899843223</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0008345982443709637</v>
+        <v>0.000814150565805801</v>
       </c>
     </row>
     <row r="17">
@@ -5528,22 +5643,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.05177521754202106</v>
+        <v>-0.04196695870933648</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2868442542425261</v>
+        <v>0.2586152042632449</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02246084067238286</v>
+        <v>-0.08967707819164457</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9637100796116569</v>
+        <v>0.9654809997056968</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2461114849910537</v>
+        <v>0.2995119376004325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9633767136045864</v>
+        <v>0.8557413945033364</v>
       </c>
     </row>
     <row r="18">
@@ -5553,22 +5668,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.53988356473795</v>
+        <v>2.583974074287823</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3153496501029089</v>
+        <v>0.410090784621323</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7049336049233238</v>
+        <v>1.095623995154862</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002465811504160927</v>
+        <v>0.006431220314922718</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3544106348740209</v>
+        <v>0.2186115440678829</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1439527108975532</v>
+        <v>0.01958336822803758</v>
       </c>
     </row>
     <row r="19">
@@ -5578,22 +5693,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.229743980380598</v>
+        <v>2.571397086309312</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0888814217371873</v>
+        <v>0.1606758215875952</v>
       </c>
       <c r="D19" t="n">
-        <v>2.265106578357161</v>
+        <v>2.563841327854488</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003129083192921903</v>
+        <v>0.07150603666656137</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8476040861642808</v>
+        <v>0.726563920514149</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002540676161091735</v>
+        <v>6.467450588917841e-05</v>
       </c>
     </row>
     <row r="20">
@@ -5603,22 +5718,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-19.03172640862191</v>
+        <v>-17.09238427551882</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2134902590840763</v>
+        <v>0.1335245838037618</v>
       </c>
       <c r="D20" t="n">
-        <v>1.411225088927297</v>
+        <v>1.724315041718758</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998692003038091</v>
+        <v>0.9995575137663699</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7315989131741292</v>
+        <v>0.8282701458475275</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03097472478610521</v>
+        <v>0.005915757007083961</v>
       </c>
     </row>
     <row r="21">
@@ -5628,22 +5743,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.914786235732912</v>
+        <v>1.221130039343389</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9093938030894458</v>
+        <v>1.007011187964892</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6387137866068034</v>
+        <v>0.8382166367741276</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06233451229294547</v>
+        <v>0.1913138841343354</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001572656567002404</v>
+        <v>0.0004753515698923525</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2153784493032993</v>
+        <v>0.101678005678033</v>
       </c>
     </row>
     <row r="22">
@@ -5653,22 +5768,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.3650173255496</v>
+        <v>16.2390235995749</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.767292065030162</v>
+        <v>-2.545671160872485</v>
       </c>
       <c r="D22" t="n">
-        <v>19.05923325800108</v>
+        <v>11.52008009373675</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9989984284620108</v>
+        <v>0.9997265073656303</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1885141759772523</v>
+        <v>0.1586811619969365</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9996236651785745</v>
+        <v>0.9924519052093947</v>
       </c>
     </row>
     <row r="23">
@@ -5678,22 +5793,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.75976034451295</v>
+        <v>17.32630923327028</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.52186370487374</v>
+        <v>-3.369026471418646</v>
       </c>
       <c r="D23" t="n">
-        <v>16.67887355840741</v>
+        <v>9.11925140676529</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9989688465217781</v>
+        <v>0.9997081956366207</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06918384711308967</v>
+        <v>0.06670194625012547</v>
       </c>
       <c r="G23" t="n">
-        <v>0.999670666659491</v>
+        <v>0.9940249240047928</v>
       </c>
     </row>
     <row r="24">
@@ -5703,22 +5818,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.73165739457553</v>
+        <v>17.9366312447251</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.909094106799954</v>
+        <v>-2.499698096292441</v>
       </c>
       <c r="D24" t="n">
-        <v>19.64473328377711</v>
+        <v>12.04353989407518</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9988960128053204</v>
+        <v>0.9996979167816641</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1496661804217271</v>
+        <v>0.1631651207953757</v>
       </c>
       <c r="G24" t="n">
-        <v>0.999612104166232</v>
+        <v>0.9921089385593035</v>
       </c>
     </row>
     <row r="25">
@@ -5728,22 +5843,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.71525527698887</v>
+        <v>18.45410329283703</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.92713195984909</v>
+        <v>-2.579577343726243</v>
       </c>
       <c r="D25" t="n">
-        <v>19.76716374120269</v>
+        <v>12.35896705601755</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9988972419762975</v>
+        <v>0.9996892016772699</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1468341990842024</v>
+        <v>0.1506776278803548</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9996096867111373</v>
+        <v>0.9919022741822803</v>
       </c>
     </row>
     <row r="26">
@@ -5753,22 +5868,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.3952551108632429</v>
+        <v>-0.3439771997103164</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1128463768783421</v>
+        <v>0.03886681323300076</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7608170307892302</v>
+        <v>0.5709225946650258</v>
       </c>
       <c r="E26" t="n">
-        <v>0.389183305760422</v>
+        <v>0.4148976511350059</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3617533830652998</v>
+        <v>0.7536517612650111</v>
       </c>
       <c r="G26" t="n">
-        <v>9.202248809593632e-05</v>
+        <v>0.003251000557415476</v>
       </c>
     </row>
     <row r="27">
@@ -5778,22 +5893,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04366626533117902</v>
+        <v>0.01641154595163083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004535716818530325</v>
+        <v>0.006838492293977093</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.009129010489112023</v>
+        <v>-0.004551787748092286</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1360728092472175</v>
+        <v>0.4952724840740762</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5108144411470188</v>
+        <v>0.3255939621256104</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3853794252355763</v>
+        <v>0.6749263047102998</v>
       </c>
     </row>
     <row r="28">
@@ -5803,22 +5918,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0003553634172709886</v>
+        <v>-0.0003460462041242681</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.001588672990686672</v>
+        <v>-0.001604506216188917</v>
       </c>
       <c r="D28" t="n">
-        <v>1.582998047897121e-05</v>
+        <v>1.418166502540809e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004295783145606057</v>
+        <v>0.002169248781945696</v>
       </c>
       <c r="F28" t="n">
-        <v>1.060548973500196e-101</v>
+        <v>8.541901608488971e-103</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4647371643320091</v>
+        <v>0.5291624082560382</v>
       </c>
     </row>
     <row r="29">
@@ -5828,22 +5943,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.699091886256266</v>
+        <v>-2.18999495275385</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.194262392175756</v>
+        <v>-3.226976600631628</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.167733565827985</v>
+        <v>-4.075631180029857</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0002332677344574286</v>
+        <v>0.002857223995609242</v>
       </c>
       <c r="F29" t="n">
-        <v>1.455350299221739e-24</v>
+        <v>1.482081420486991e-24</v>
       </c>
       <c r="G29" t="n">
-        <v>1.508529784090981e-35</v>
+        <v>3.210826384858302e-34</v>
       </c>
     </row>
     <row r="30">
@@ -5853,22 +5968,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.123556119583205</v>
+        <v>0.05252290684744593</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1070884740121642</v>
+        <v>0.09032893786846399</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1966179633219421</v>
+        <v>0.172082564320222</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5587117453341595</v>
+        <v>0.7702599731061343</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05710229910302688</v>
+        <v>0.11400673591795</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01732862670285056</v>
+        <v>0.03981655373855025</v>
       </c>
     </row>
     <row r="31">
@@ -5878,22 +5993,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0003755249839328162</v>
+        <v>0.0484017869390412</v>
       </c>
       <c r="C31" t="n">
-        <v>6.030687772370641e-05</v>
+        <v>0.01603231019937968</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001144229937328093</v>
+        <v>-0.009052902671743622</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1683810677764804</v>
+        <v>0.06521786359374447</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4007599637006207</v>
+        <v>0.01401255047756557</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3385453350187083</v>
+        <v>0.3931841043430339</v>
       </c>
     </row>
     <row r="32">
@@ -5903,22 +6018,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2082038994950567</v>
+        <v>-0.1897717862615514</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1017315545789762</v>
+        <v>0.1204843759845976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1160137560646693</v>
+        <v>0.15280000585158</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3605126841950322</v>
+        <v>0.5819021338136185</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04317526459184765</v>
+        <v>0.01809346578273061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1976715758157932</v>
+        <v>0.1179692161651047</v>
       </c>
     </row>
     <row r="33">
@@ -5928,22 +6043,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05461978758255927</v>
+        <v>-0.126886199544111</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007483855195645953</v>
+        <v>-0.01913688559877383</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0674157122744901</v>
+        <v>-0.01696592797702551</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6351200870909939</v>
+        <v>0.3452149365661117</v>
       </c>
       <c r="F33" t="n">
-        <v>0.812159897072647</v>
+        <v>0.5372379560689062</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2540382420414871</v>
+        <v>0.783737221966849</v>
       </c>
     </row>
     <row r="34">
@@ -5953,147 +6068,172 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-4.859431453782212e-07</v>
+        <v>-0.4851262971494288</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.365964006828599e-08</v>
+        <v>-0.07308633964052498</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.629461161571348e-08</v>
+        <v>0.002173871957252297</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04997309628411663</v>
+        <v>0.0334956653782158</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5684604027971903</v>
+        <v>0.2177133154303543</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7910997450504691</v>
+        <v>0.9814900486061083</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.07128712131982197</v>
+        <v>-0.03950689262105139</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003432226499578275</v>
+        <v>-0.00874431138139063</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002861016089368837</v>
+        <v>0.02036940103081838</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02385269129478369</v>
+        <v>0.06744774892058855</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3722227311538172</v>
+        <v>0.1343788974265336</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4413211252553226</v>
+        <v>0.0248433709210968</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.082349205820384</v>
+        <v>-0.1106323187569717</v>
       </c>
       <c r="C36" t="n">
-        <v>4.485357851267897</v>
+        <v>0.0008134294548032489</v>
       </c>
       <c r="D36" t="n">
-        <v>1.543363892353799</v>
+        <v>0.00433147586889813</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8505725377638861</v>
+        <v>0.003532016081745117</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2824821682332017</v>
+        <v>0.8588142611469576</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8276117551640337</v>
+        <v>0.2956304279709222</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.963248769705498</v>
+        <v>-0.1381970723320655</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1313725962976268</v>
+        <v>0.08187905748210618</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2984924779070256</v>
+        <v>-0.09197003361125458</v>
       </c>
       <c r="E37" t="n">
-        <v>0.367434480936197</v>
+        <v>0.41420534695052</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7799137624255696</v>
+        <v>0.05637440086441772</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7211508406403252</v>
+        <v>0.2435285290589652</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.737057746224632</v>
+        <v>0.01855206593241114</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1841606552502455</v>
+        <v>0.001393521976033732</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.7481883856142381</v>
+        <v>0.003410749043106538</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04660273323357873</v>
+        <v>0.4113353577649389</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8754809870869066</v>
+        <v>0.7946232627360358</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7239160436848235</v>
+        <v>0.7229724287064875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.09780864303080035</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.006638856530945628</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.03730442216873767</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.02028975045646842</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5674347185156695</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.09130162154513499</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>-8.55735177400902e-05</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.000493092191208946</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.0002962986511276974</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.8782639417360381</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.01130183794045472</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.3153992633949937</v>
+      <c r="B40" t="n">
+        <v>-0.01236292403221833</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05808741139333996</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1993878366246602</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9272799959130521</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.06449949057388936</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0001319394295497553</v>
       </c>
     </row>
   </sheetData>
@@ -6107,7 +6247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6584,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -6597,7 +6737,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -6610,7 +6750,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -6623,7 +6763,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -6636,7 +6776,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>transit_accessibility_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -6646,6 +6786,582 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>bike</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>walk</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bike_p</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>walk_p</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>transit_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Daytime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Evening]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Lunch]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Nighttime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.PM Rush]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Season[T.Winter]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔School]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Work]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Other]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Occupation[T.Employed_PartTime]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Occupation[T.Home_Partner]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Occupation[T.Other]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Occupation[T.Retired]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_3rdLevel]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_School]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Occupation[T.Trainee]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Occupation[T.Unemployed]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Education[T.Elementary]</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Education[T.No diploma yet]</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Education[T.Secondary]</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UrbBuildDensity_res</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
